--- a/orange_purple_green/Condition_File_orange_purple_green.xlsx
+++ b/orange_purple_green/Condition_File_orange_purple_green.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/orange_purple_green/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8AA39E-C3DE-0F48-A653-66589FAA71E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1627454C-AA6C-9641-B358-C86031F9ABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="740" windowWidth="28100" windowHeight="17260" xr2:uid="{526C65A3-8653-B045-81E6-FD1946F289D0}"/>
+    <workbookView xWindow="420" yWindow="1860" windowWidth="28100" windowHeight="17260" xr2:uid="{526C65A3-8653-B045-81E6-FD1946F289D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="1456">
   <si>
     <t>Jar1</t>
   </si>
@@ -3729,13 +3729,688 @@
   </si>
   <si>
     <t>['darkorange', 'green', 'green', 'purple', 'darkorange', 'green', 'darkorange', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_0.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_5.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_4.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_3.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_2.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_1.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_6.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_7.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_10.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_9.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_8.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_11.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_12.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_13.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_14.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_17.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_15.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_16.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_18.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_19.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_20.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_21.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_22.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_23.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_25.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_24.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_26.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_27.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_28.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_29.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_30.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_31.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_32.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_34.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_33.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_36.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_37.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_38.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_39.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_40.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_35.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_43.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_44.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_41.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_42.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_45.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_46.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_47.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_48.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_49.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_50.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_53.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_54.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_51.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_52.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_55.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_56.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_57.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_58.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_60.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_59.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_61.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_64.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_66.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_62.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_63.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_65.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_67.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_70.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_71.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_72.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_73.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_68.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_69.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_75.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_76.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_77.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_74.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_79.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_78.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_80.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_82.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_85.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_81.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_83.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_84.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_88.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_89.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_90.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_86.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_87.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_93.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_94.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_92.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_91.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_97.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_101.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_103.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_104.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_106.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_different_109.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_96.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_95.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_100.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_99.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_98.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_102.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_105.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_108.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_107.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_111.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_right_same_110.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_0.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_1.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_2.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_3.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_4.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_5.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_7.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_5.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_8.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_10.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_9.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_11.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_12.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_13.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_14.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_15.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_16.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_17.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_18.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_19.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_20.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_24.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_21.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_22.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_23.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_25.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_26.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_27.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_28.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_29.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_31.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_30.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_33.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_34.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_35.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_36.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_32.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_40.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_41.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_42.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_43.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_44.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_45.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_46.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_47.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_48.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_37.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_38.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_39.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_50.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_51.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_52.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_49.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_55.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_57.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_61.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_59.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_53.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_54.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_56.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_60.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_58.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_65.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_62.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_63.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_64.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_69.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_66.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_67.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_68.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_71.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_72.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_73.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_70.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_76.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_77.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_74.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_75.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_81.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_78.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_79.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_80.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_83.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_82.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_86.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_87.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_84.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_85.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_89.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_90.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_88.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_92.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_94.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_91.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_93.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_95.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_97.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_98.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_96.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_104.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_105.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_106.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_107.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_108.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_different_112.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_99.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_100.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_101.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_103.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_102.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_109.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_110.jpg</t>
+  </si>
+  <si>
+    <t>./Stimuli/reg_trials/marblejar3_left_same_111.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -3754,6 +4429,13 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3779,7 +4461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3788,6 +4470,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4106,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E2253F-CEA1-B24A-AC07-FC75E5A8E487}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="B254" sqref="B254"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="E301" sqref="E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4172,7 +4857,7 @@
       <c r="D2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="2">
@@ -4213,7 +4898,7 @@
       <c r="D3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2">
@@ -4254,7 +4939,7 @@
       <c r="D4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="2">
@@ -4295,7 +4980,7 @@
       <c r="D5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="2">
@@ -4336,7 +5021,7 @@
       <c r="D6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="2">
@@ -4377,7 +5062,7 @@
       <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2">
@@ -4418,7 +5103,7 @@
       <c r="D8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2">
@@ -4459,7 +5144,7 @@
       <c r="D9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="2">
@@ -4500,7 +5185,7 @@
       <c r="D10" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="2">
@@ -4541,7 +5226,7 @@
       <c r="D11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="2">
@@ -4582,7 +5267,7 @@
       <c r="D12" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="2">
@@ -4623,7 +5308,7 @@
       <c r="D13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="2">
@@ -4664,7 +5349,7 @@
       <c r="D14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2">
@@ -4705,7 +5390,7 @@
       <c r="D15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="2">
@@ -4746,7 +5431,7 @@
       <c r="D16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="2">
@@ -4787,7 +5472,7 @@
       <c r="D17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="2">
@@ -4828,7 +5513,7 @@
       <c r="D18" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="2">
@@ -4869,7 +5554,7 @@
       <c r="D19" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2">
@@ -4910,7 +5595,7 @@
       <c r="D20" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="2">
@@ -4951,7 +5636,7 @@
       <c r="D21" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="2">
@@ -4992,7 +5677,7 @@
       <c r="D22" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="2">
@@ -5033,7 +5718,7 @@
       <c r="D23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="2">
@@ -5074,7 +5759,7 @@
       <c r="D24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="2">
@@ -5115,7 +5800,7 @@
       <c r="D25" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="2">
@@ -5156,7 +5841,7 @@
       <c r="D26" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="2">
@@ -5197,7 +5882,7 @@
       <c r="D27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="2">
@@ -5238,7 +5923,7 @@
       <c r="D28" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="2">
@@ -5279,7 +5964,7 @@
       <c r="D29" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="2">
@@ -5320,7 +6005,7 @@
       <c r="D30" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="2">
@@ -5361,7 +6046,7 @@
       <c r="D31" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2">
@@ -5402,7 +6087,7 @@
       <c r="D32" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="2">
@@ -5443,7 +6128,7 @@
       <c r="D33" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" t="s">
         <v>23</v>
       </c>
       <c r="F33" s="2">
@@ -5484,7 +6169,7 @@
       <c r="D34" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="2">
@@ -5525,7 +6210,7 @@
       <c r="D35" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="2">
@@ -5566,7 +6251,7 @@
       <c r="D36" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="2">
@@ -5607,7 +6292,7 @@
       <c r="D37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="2">
@@ -5648,7 +6333,7 @@
       <c r="D38" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="2">
@@ -5689,7 +6374,7 @@
       <c r="D39" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="2">
@@ -5730,7 +6415,7 @@
       <c r="D40" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>23</v>
       </c>
       <c r="F40" s="2">
@@ -5771,7 +6456,7 @@
       <c r="D41" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
         <v>23</v>
       </c>
       <c r="F41" s="2">
@@ -5812,7 +6497,7 @@
       <c r="D42" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="2">
@@ -5853,7 +6538,7 @@
       <c r="D43" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="2">
@@ -5894,7 +6579,7 @@
       <c r="D44" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="2">
@@ -5935,7 +6620,7 @@
       <c r="D45" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="2">
@@ -5976,7 +6661,7 @@
       <c r="D46" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" t="s">
         <v>23</v>
       </c>
       <c r="F46" s="2">
@@ -6017,7 +6702,7 @@
       <c r="D47" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" t="s">
         <v>23</v>
       </c>
       <c r="F47" s="2">
@@ -6058,7 +6743,7 @@
       <c r="D48" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" t="s">
         <v>23</v>
       </c>
       <c r="F48" s="2">
@@ -6099,7 +6784,7 @@
       <c r="D49" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" t="s">
         <v>23</v>
       </c>
       <c r="F49" s="2">
@@ -6140,7 +6825,7 @@
       <c r="D50" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="2">
@@ -6181,7 +6866,7 @@
       <c r="D51" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="2">
@@ -6222,7 +6907,7 @@
       <c r="D52" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="2">
@@ -6263,7 +6948,7 @@
       <c r="D53" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="2">
@@ -6304,7 +6989,7 @@
       <c r="D54" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" t="s">
         <v>23</v>
       </c>
       <c r="F54" s="2">
@@ -6345,7 +7030,7 @@
       <c r="D55" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" t="s">
         <v>23</v>
       </c>
       <c r="F55" s="2">
@@ -6386,7 +7071,7 @@
       <c r="D56" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" t="s">
         <v>23</v>
       </c>
       <c r="F56" s="2">
@@ -6427,7 +7112,7 @@
       <c r="D57" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" t="s">
         <v>23</v>
       </c>
       <c r="F57" s="2">
@@ -6468,7 +7153,7 @@
       <c r="D58" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="2">
@@ -6509,7 +7194,7 @@
       <c r="D59" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="2">
@@ -6550,7 +7235,7 @@
       <c r="D60" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="2">
@@ -6591,7 +7276,7 @@
       <c r="D61" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="2">
@@ -6632,7 +7317,7 @@
       <c r="D62" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" t="s">
         <v>23</v>
       </c>
       <c r="F62" s="2">
@@ -6673,7 +7358,7 @@
       <c r="D63" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" t="s">
         <v>23</v>
       </c>
       <c r="F63" s="2">
@@ -6714,7 +7399,7 @@
       <c r="D64" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" t="s">
         <v>23</v>
       </c>
       <c r="F64" s="2">
@@ -6755,7 +7440,7 @@
       <c r="D65" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" t="s">
         <v>23</v>
       </c>
       <c r="F65" s="2">
@@ -6796,7 +7481,7 @@
       <c r="D66" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="2">
@@ -6837,7 +7522,7 @@
       <c r="D67" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="2">
@@ -6878,7 +7563,7 @@
       <c r="D68" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="2">
@@ -6919,7 +7604,7 @@
       <c r="D69" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="2">
@@ -6960,7 +7645,7 @@
       <c r="D70" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" t="s">
         <v>23</v>
       </c>
       <c r="F70" s="2">
@@ -7001,7 +7686,7 @@
       <c r="D71" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" t="s">
         <v>23</v>
       </c>
       <c r="F71" s="2">
@@ -7042,7 +7727,7 @@
       <c r="D72" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" t="s">
         <v>23</v>
       </c>
       <c r="F72" s="2">
@@ -7083,8 +7768,8 @@
       <c r="D73" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>23</v>
+      <c r="E73" t="s">
+        <v>13</v>
       </c>
       <c r="F73" s="2">
         <v>0.25</v>
@@ -7124,7 +7809,7 @@
       <c r="D74" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="2">
@@ -7165,7 +7850,7 @@
       <c r="D75" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="2">
@@ -7206,7 +7891,7 @@
       <c r="D76" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="2">
@@ -7247,7 +7932,7 @@
       <c r="D77" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" t="s">
         <v>13</v>
       </c>
       <c r="F77" s="2">
@@ -7262,9 +7947,15 @@
       <c r="I77" s="2">
         <v>0</v>
       </c>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M77" s="2" t="s">
         <v>16</v>
       </c>
@@ -7282,8 +7973,8 @@
       <c r="D78" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>23</v>
+      <c r="E78" t="s">
+        <v>13</v>
       </c>
       <c r="F78" s="2">
         <v>-0.25</v>
@@ -7297,9 +7988,15 @@
       <c r="I78" s="2">
         <v>0</v>
       </c>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
+      <c r="J78" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M78" s="2" t="s">
         <v>17</v>
       </c>
@@ -7317,8 +8014,8 @@
       <c r="D79" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>23</v>
+      <c r="E79" t="s">
+        <v>13</v>
       </c>
       <c r="F79" s="2">
         <v>-0.25</v>
@@ -7332,9 +8029,15 @@
       <c r="I79" s="2">
         <v>0</v>
       </c>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M79" s="2" t="s">
         <v>16</v>
       </c>
@@ -7352,8 +8055,8 @@
       <c r="D80" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>23</v>
+      <c r="E80" t="s">
+        <v>13</v>
       </c>
       <c r="F80" s="2">
         <v>-0.25</v>
@@ -7367,9 +8070,15 @@
       <c r="I80" s="2">
         <v>0</v>
       </c>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
+      <c r="J80" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M80" s="2" t="s">
         <v>17</v>
       </c>
@@ -7387,8 +8096,8 @@
       <c r="D81" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>23</v>
+      <c r="E81" t="s">
+        <v>13</v>
       </c>
       <c r="F81" s="2">
         <v>-0.25</v>
@@ -7402,9 +8111,15 @@
       <c r="I81" s="2">
         <v>0</v>
       </c>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M81" s="2" t="s">
         <v>16</v>
       </c>
@@ -7422,7 +8137,7 @@
       <c r="D82" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="2">
@@ -7437,9 +8152,15 @@
       <c r="I82" s="2">
         <v>0</v>
       </c>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M82" s="2" t="s">
         <v>17</v>
       </c>
@@ -7457,7 +8178,7 @@
       <c r="D83" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="2">
@@ -7472,9 +8193,15 @@
       <c r="I83" s="2">
         <v>0</v>
       </c>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M83" s="2" t="s">
         <v>16</v>
       </c>
@@ -7492,7 +8219,7 @@
       <c r="D84" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="2">
@@ -7507,9 +8234,15 @@
       <c r="I84" s="2">
         <v>0</v>
       </c>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M84" s="2" t="s">
         <v>17</v>
       </c>
@@ -7527,7 +8260,7 @@
       <c r="D85" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="2">
@@ -7542,9 +8275,15 @@
       <c r="I85" s="2">
         <v>0</v>
       </c>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M85" s="2" t="s">
         <v>16</v>
       </c>
@@ -7562,8 +8301,8 @@
       <c r="D86" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>23</v>
+      <c r="E86" t="s">
+        <v>13</v>
       </c>
       <c r="F86" s="2">
         <v>-0.25</v>
@@ -7577,9 +8316,15 @@
       <c r="I86" s="2">
         <v>0</v>
       </c>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M86" s="2" t="s">
         <v>17</v>
       </c>
@@ -7597,8 +8342,8 @@
       <c r="D87" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>23</v>
+      <c r="E87" t="s">
+        <v>13</v>
       </c>
       <c r="F87" s="2">
         <v>-0.25</v>
@@ -7612,14 +8357,20 @@
       <c r="I87" s="2">
         <v>0</v>
       </c>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
+      <c r="J87" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M87" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>822</v>
       </c>
@@ -7632,8 +8383,8 @@
       <c r="D88" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>23</v>
+      <c r="E88" t="s">
+        <v>13</v>
       </c>
       <c r="F88" s="2">
         <v>-0.25</v>
@@ -7647,9 +8398,15 @@
       <c r="I88" s="2">
         <v>0</v>
       </c>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M88" s="2" t="s">
         <v>17</v>
       </c>
@@ -7667,8 +8424,8 @@
       <c r="D89" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>23</v>
+      <c r="E89" t="s">
+        <v>13</v>
       </c>
       <c r="F89" s="2">
         <v>-0.25</v>
@@ -7682,9 +8439,15 @@
       <c r="I89" s="2">
         <v>0</v>
       </c>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M89" s="2" t="s">
         <v>16</v>
       </c>
@@ -7702,7 +8465,7 @@
       <c r="D90" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="2">
@@ -7717,9 +8480,15 @@
       <c r="I90" s="2">
         <v>0</v>
       </c>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M90" s="2" t="s">
         <v>17</v>
       </c>
@@ -7737,7 +8506,7 @@
       <c r="D91" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" t="s">
         <v>13</v>
       </c>
       <c r="F91" s="2">
@@ -7752,9 +8521,15 @@
       <c r="I91" s="2">
         <v>0</v>
       </c>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M91" s="2" t="s">
         <v>16</v>
       </c>
@@ -7772,7 +8547,7 @@
       <c r="D92" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="2">
@@ -7787,9 +8562,15 @@
       <c r="I92" s="2">
         <v>0</v>
       </c>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
+      <c r="J92" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M92" s="2" t="s">
         <v>17</v>
       </c>
@@ -7807,7 +8588,7 @@
       <c r="D93" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="2">
@@ -7822,14 +8603,20 @@
       <c r="I93" s="2">
         <v>0</v>
       </c>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
+      <c r="J93" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M93" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>834</v>
       </c>
@@ -7842,8 +8629,8 @@
       <c r="D94" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>23</v>
+      <c r="E94" t="s">
+        <v>13</v>
       </c>
       <c r="F94" s="2">
         <v>-0.25</v>
@@ -7857,9 +8644,15 @@
       <c r="I94" s="2">
         <v>0</v>
       </c>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
+      <c r="J94" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M94" s="2" t="s">
         <v>17</v>
       </c>
@@ -7877,8 +8670,8 @@
       <c r="D95" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>23</v>
+      <c r="E95" t="s">
+        <v>13</v>
       </c>
       <c r="F95" s="2">
         <v>-0.25</v>
@@ -7892,9 +8685,15 @@
       <c r="I95" s="2">
         <v>0</v>
       </c>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
+      <c r="J95" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M95" s="2" t="s">
         <v>16</v>
       </c>
@@ -7912,8 +8711,8 @@
       <c r="D96" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>23</v>
+      <c r="E96" t="s">
+        <v>13</v>
       </c>
       <c r="F96" s="2">
         <v>-0.25</v>
@@ -7927,9 +8726,15 @@
       <c r="I96" s="2">
         <v>0</v>
       </c>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
+      <c r="J96" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M96" s="2" t="s">
         <v>17</v>
       </c>
@@ -7947,8 +8752,8 @@
       <c r="D97" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>23</v>
+      <c r="E97" t="s">
+        <v>13</v>
       </c>
       <c r="F97" s="2">
         <v>-0.25</v>
@@ -7962,9 +8767,15 @@
       <c r="I97" s="2">
         <v>0</v>
       </c>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+      <c r="J97" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M97" s="2" t="s">
         <v>16</v>
       </c>
@@ -7982,7 +8793,7 @@
       <c r="D98" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="2">
@@ -7997,9 +8808,15 @@
       <c r="I98" s="2">
         <v>0</v>
       </c>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
+      <c r="J98" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M98" s="2" t="s">
         <v>17</v>
       </c>
@@ -8017,7 +8834,7 @@
       <c r="D99" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="2">
@@ -8032,9 +8849,15 @@
       <c r="I99" s="2">
         <v>0</v>
       </c>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
+      <c r="J99" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M99" s="2" t="s">
         <v>16</v>
       </c>
@@ -8052,7 +8875,7 @@
       <c r="D100" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" t="s">
         <v>13</v>
       </c>
       <c r="F100" s="2">
@@ -8067,9 +8890,15 @@
       <c r="I100" s="2">
         <v>0</v>
       </c>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
+      <c r="J100" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M100" s="2" t="s">
         <v>17</v>
       </c>
@@ -8087,7 +8916,7 @@
       <c r="D101" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="2">
@@ -8102,9 +8931,15 @@
       <c r="I101" s="2">
         <v>0</v>
       </c>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
+      <c r="J101" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M101" s="2" t="s">
         <v>16</v>
       </c>
@@ -8122,8 +8957,8 @@
       <c r="D102" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>23</v>
+      <c r="E102" t="s">
+        <v>13</v>
       </c>
       <c r="F102" s="2">
         <v>-0.25</v>
@@ -8137,9 +8972,15 @@
       <c r="I102" s="2">
         <v>0</v>
       </c>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
+      <c r="J102" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M102" s="2" t="s">
         <v>17</v>
       </c>
@@ -8157,8 +8998,8 @@
       <c r="D103" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>23</v>
+      <c r="E103" t="s">
+        <v>13</v>
       </c>
       <c r="F103" s="2">
         <v>-0.25</v>
@@ -8172,9 +9013,15 @@
       <c r="I103" s="2">
         <v>0</v>
       </c>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
+      <c r="J103" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M103" s="2" t="s">
         <v>16</v>
       </c>
@@ -8192,8 +9039,8 @@
       <c r="D104" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>23</v>
+      <c r="E104" t="s">
+        <v>13</v>
       </c>
       <c r="F104" s="2">
         <v>-0.25</v>
@@ -8207,9 +9054,15 @@
       <c r="I104" s="2">
         <v>0</v>
       </c>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
+      <c r="J104" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M104" s="2" t="s">
         <v>17</v>
       </c>
@@ -8227,8 +9080,8 @@
       <c r="D105" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>23</v>
+      <c r="E105" t="s">
+        <v>13</v>
       </c>
       <c r="F105" s="2">
         <v>-0.25</v>
@@ -8242,9 +9095,15 @@
       <c r="I105" s="2">
         <v>0</v>
       </c>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
+      <c r="J105" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M105" s="2" t="s">
         <v>16</v>
       </c>
@@ -8262,7 +9121,7 @@
       <c r="D106" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" t="s">
         <v>13</v>
       </c>
       <c r="F106" s="2">
@@ -8277,9 +9136,15 @@
       <c r="I106" s="2">
         <v>0</v>
       </c>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
+      <c r="J106" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M106" s="2" t="s">
         <v>17</v>
       </c>
@@ -8297,7 +9162,7 @@
       <c r="D107" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" t="s">
         <v>13</v>
       </c>
       <c r="F107" s="2">
@@ -8312,9 +9177,15 @@
       <c r="I107" s="2">
         <v>0</v>
       </c>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
+      <c r="J107" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M107" s="2" t="s">
         <v>16</v>
       </c>
@@ -8332,7 +9203,7 @@
       <c r="D108" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" t="s">
         <v>13</v>
       </c>
       <c r="F108" s="2">
@@ -8347,9 +9218,15 @@
       <c r="I108" s="2">
         <v>0</v>
       </c>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
+      <c r="J108" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M108" s="2" t="s">
         <v>17</v>
       </c>
@@ -8367,7 +9244,7 @@
       <c r="D109" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" t="s">
         <v>13</v>
       </c>
       <c r="F109" s="2">
@@ -8382,9 +9259,15 @@
       <c r="I109" s="2">
         <v>0</v>
       </c>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
+      <c r="J109" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M109" s="2" t="s">
         <v>16</v>
       </c>
@@ -8402,8 +9285,8 @@
       <c r="D110" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>23</v>
+      <c r="E110" t="s">
+        <v>13</v>
       </c>
       <c r="F110" s="2">
         <v>-0.25</v>
@@ -8417,9 +9300,15 @@
       <c r="I110" s="2">
         <v>0</v>
       </c>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
+      <c r="J110" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M110" s="2" t="s">
         <v>17</v>
       </c>
@@ -8437,8 +9326,8 @@
       <c r="D111" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>23</v>
+      <c r="E111" t="s">
+        <v>13</v>
       </c>
       <c r="F111" s="2">
         <v>-0.25</v>
@@ -8452,9 +9341,15 @@
       <c r="I111" s="2">
         <v>0</v>
       </c>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
+      <c r="J111" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M111" s="2" t="s">
         <v>16</v>
       </c>
@@ -8472,8 +9367,8 @@
       <c r="D112" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>23</v>
+      <c r="E112" t="s">
+        <v>13</v>
       </c>
       <c r="F112" s="2">
         <v>-0.25</v>
@@ -8487,9 +9382,15 @@
       <c r="I112" s="2">
         <v>0</v>
       </c>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
+      <c r="J112" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M112" s="2" t="s">
         <v>17</v>
       </c>
@@ -8507,8 +9408,8 @@
       <c r="D113" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>23</v>
+      <c r="E113" t="s">
+        <v>13</v>
       </c>
       <c r="F113" s="2">
         <v>-0.25</v>
@@ -8522,9 +9423,15 @@
       <c r="I113" s="2">
         <v>0</v>
       </c>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
+      <c r="J113" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M113" s="2" t="s">
         <v>16</v>
       </c>
@@ -8542,7 +9449,7 @@
       <c r="D114" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" t="s">
         <v>13</v>
       </c>
       <c r="F114" s="2">
@@ -8557,9 +9464,15 @@
       <c r="I114" s="2">
         <v>0</v>
       </c>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
+      <c r="J114" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M114" s="2" t="s">
         <v>17</v>
       </c>
@@ -8577,7 +9490,7 @@
       <c r="D115" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" t="s">
         <v>13</v>
       </c>
       <c r="F115" s="2">
@@ -8592,9 +9505,15 @@
       <c r="I115" s="2">
         <v>0</v>
       </c>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
+      <c r="J115" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M115" s="2" t="s">
         <v>16</v>
       </c>
@@ -8612,7 +9531,7 @@
       <c r="D116" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" t="s">
         <v>13</v>
       </c>
       <c r="F116" s="2">
@@ -8627,9 +9546,15 @@
       <c r="I116" s="2">
         <v>0</v>
       </c>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
+      <c r="J116" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M116" s="2" t="s">
         <v>17</v>
       </c>
@@ -8647,7 +9572,7 @@
       <c r="D117" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" t="s">
         <v>13</v>
       </c>
       <c r="F117" s="2">
@@ -8662,9 +9587,15 @@
       <c r="I117" s="2">
         <v>0</v>
       </c>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
+      <c r="J117" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M117" s="2" t="s">
         <v>16</v>
       </c>
@@ -8682,8 +9613,8 @@
       <c r="D118" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>23</v>
+      <c r="E118" t="s">
+        <v>13</v>
       </c>
       <c r="F118" s="2">
         <v>-0.25</v>
@@ -8697,9 +9628,15 @@
       <c r="I118" s="2">
         <v>0</v>
       </c>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
+      <c r="J118" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M118" s="2" t="s">
         <v>17</v>
       </c>
@@ -8717,8 +9654,8 @@
       <c r="D119" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>23</v>
+      <c r="E119" t="s">
+        <v>13</v>
       </c>
       <c r="F119" s="2">
         <v>-0.25</v>
@@ -8732,9 +9669,15 @@
       <c r="I119" s="2">
         <v>0</v>
       </c>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
+      <c r="J119" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M119" s="2" t="s">
         <v>16</v>
       </c>
@@ -8752,8 +9695,8 @@
       <c r="D120" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>23</v>
+      <c r="E120" t="s">
+        <v>13</v>
       </c>
       <c r="F120" s="2">
         <v>-0.25</v>
@@ -8767,9 +9710,15 @@
       <c r="I120" s="2">
         <v>0</v>
       </c>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
+      <c r="J120" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M120" s="2" t="s">
         <v>17</v>
       </c>
@@ -8787,8 +9736,8 @@
       <c r="D121" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>23</v>
+      <c r="E121" t="s">
+        <v>13</v>
       </c>
       <c r="F121" s="2">
         <v>-0.25</v>
@@ -8802,9 +9751,15 @@
       <c r="I121" s="2">
         <v>0</v>
       </c>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
+      <c r="J121" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M121" s="2" t="s">
         <v>16</v>
       </c>
@@ -8822,7 +9777,7 @@
       <c r="D122" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="2">
@@ -8837,9 +9792,15 @@
       <c r="I122" s="2">
         <v>0</v>
       </c>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
+      <c r="J122" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M122" s="2" t="s">
         <v>17</v>
       </c>
@@ -8857,7 +9818,7 @@
       <c r="D123" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" t="s">
         <v>13</v>
       </c>
       <c r="F123" s="2">
@@ -8872,9 +9833,15 @@
       <c r="I123" s="2">
         <v>0</v>
       </c>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
+      <c r="J123" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M123" s="2" t="s">
         <v>16</v>
       </c>
@@ -8892,7 +9859,7 @@
       <c r="D124" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" t="s">
         <v>13</v>
       </c>
       <c r="F124" s="2">
@@ -8907,9 +9874,15 @@
       <c r="I124" s="2">
         <v>0</v>
       </c>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
+      <c r="J124" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M124" s="2" t="s">
         <v>17</v>
       </c>
@@ -8927,7 +9900,7 @@
       <c r="D125" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" t="s">
         <v>13</v>
       </c>
       <c r="F125" s="2">
@@ -8942,9 +9915,15 @@
       <c r="I125" s="2">
         <v>0</v>
       </c>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
+      <c r="J125" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M125" s="2" t="s">
         <v>16</v>
       </c>
@@ -8962,8 +9941,8 @@
       <c r="D126" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>23</v>
+      <c r="E126" t="s">
+        <v>13</v>
       </c>
       <c r="F126" s="2">
         <v>-0.25</v>
@@ -8977,9 +9956,15 @@
       <c r="I126" s="2">
         <v>0</v>
       </c>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
+      <c r="J126" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M126" s="2" t="s">
         <v>17</v>
       </c>
@@ -8997,8 +9982,8 @@
       <c r="D127" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>23</v>
+      <c r="E127" t="s">
+        <v>13</v>
       </c>
       <c r="F127" s="2">
         <v>-0.25</v>
@@ -9012,9 +9997,15 @@
       <c r="I127" s="2">
         <v>0</v>
       </c>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
+      <c r="J127" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M127" s="2" t="s">
         <v>16</v>
       </c>
@@ -9032,8 +10023,8 @@
       <c r="D128" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>23</v>
+      <c r="E128" t="s">
+        <v>13</v>
       </c>
       <c r="F128" s="2">
         <v>-0.25</v>
@@ -9047,9 +10038,15 @@
       <c r="I128" s="2">
         <v>0</v>
       </c>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
+      <c r="J128" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M128" s="2" t="s">
         <v>17</v>
       </c>
@@ -9067,8 +10064,8 @@
       <c r="D129" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>23</v>
+      <c r="E129" t="s">
+        <v>13</v>
       </c>
       <c r="F129" s="2">
         <v>-0.25</v>
@@ -9082,9 +10079,15 @@
       <c r="I129" s="2">
         <v>0</v>
       </c>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
+      <c r="J129" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M129" s="2" t="s">
         <v>16</v>
       </c>
@@ -9102,7 +10105,7 @@
       <c r="D130" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" t="s">
         <v>13</v>
       </c>
       <c r="F130" s="2">
@@ -9117,9 +10120,15 @@
       <c r="I130" s="2">
         <v>0</v>
       </c>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
+      <c r="J130" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M130" s="2" t="s">
         <v>17</v>
       </c>
@@ -9137,7 +10146,7 @@
       <c r="D131" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" t="s">
         <v>13</v>
       </c>
       <c r="F131" s="2">
@@ -9152,9 +10161,15 @@
       <c r="I131" s="2">
         <v>0</v>
       </c>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
+      <c r="J131" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M131" s="2" t="s">
         <v>16</v>
       </c>
@@ -9172,7 +10187,7 @@
       <c r="D132" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" t="s">
         <v>13</v>
       </c>
       <c r="F132" s="2">
@@ -9187,9 +10202,15 @@
       <c r="I132" s="2">
         <v>0</v>
       </c>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
+      <c r="J132" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M132" s="2" t="s">
         <v>17</v>
       </c>
@@ -9207,7 +10228,7 @@
       <c r="D133" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" t="s">
         <v>13</v>
       </c>
       <c r="F133" s="2">
@@ -9222,9 +10243,15 @@
       <c r="I133" s="2">
         <v>0</v>
       </c>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
+      <c r="J133" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M133" s="2" t="s">
         <v>16</v>
       </c>
@@ -9242,8 +10269,8 @@
       <c r="D134" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>23</v>
+      <c r="E134" t="s">
+        <v>13</v>
       </c>
       <c r="F134" s="2">
         <v>-0.25</v>
@@ -9257,9 +10284,15 @@
       <c r="I134" s="2">
         <v>0</v>
       </c>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
+      <c r="J134" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M134" s="2" t="s">
         <v>17</v>
       </c>
@@ -9277,8 +10310,8 @@
       <c r="D135" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>23</v>
+      <c r="E135" t="s">
+        <v>13</v>
       </c>
       <c r="F135" s="2">
         <v>-0.25</v>
@@ -9292,9 +10325,15 @@
       <c r="I135" s="2">
         <v>0</v>
       </c>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
+      <c r="J135" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M135" s="2" t="s">
         <v>16</v>
       </c>
@@ -9312,8 +10351,8 @@
       <c r="D136" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>23</v>
+      <c r="E136" t="s">
+        <v>13</v>
       </c>
       <c r="F136" s="2">
         <v>-0.25</v>
@@ -9327,9 +10366,15 @@
       <c r="I136" s="2">
         <v>0</v>
       </c>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
+      <c r="J136" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M136" s="2" t="s">
         <v>17</v>
       </c>
@@ -9347,8 +10392,8 @@
       <c r="D137" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>23</v>
+      <c r="E137" t="s">
+        <v>13</v>
       </c>
       <c r="F137" s="2">
         <v>-0.25</v>
@@ -9362,9 +10407,15 @@
       <c r="I137" s="2">
         <v>0</v>
       </c>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
+      <c r="J137" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M137" s="2" t="s">
         <v>16</v>
       </c>
@@ -9382,7 +10433,7 @@
       <c r="D138" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" t="s">
         <v>13</v>
       </c>
       <c r="F138" s="2">
@@ -9397,9 +10448,15 @@
       <c r="I138" s="2">
         <v>0</v>
       </c>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
+      <c r="J138" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M138" s="2" t="s">
         <v>17</v>
       </c>
@@ -9417,7 +10474,7 @@
       <c r="D139" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" t="s">
         <v>13</v>
       </c>
       <c r="F139" s="2">
@@ -9432,9 +10489,15 @@
       <c r="I139" s="2">
         <v>0</v>
       </c>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
+      <c r="J139" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M139" s="2" t="s">
         <v>16</v>
       </c>
@@ -9452,7 +10515,7 @@
       <c r="D140" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" t="s">
         <v>13</v>
       </c>
       <c r="F140" s="2">
@@ -9467,9 +10530,15 @@
       <c r="I140" s="2">
         <v>0</v>
       </c>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
+      <c r="J140" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M140" s="2" t="s">
         <v>17</v>
       </c>
@@ -9487,7 +10556,7 @@
       <c r="D141" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" t="s">
         <v>13</v>
       </c>
       <c r="F141" s="2">
@@ -9502,9 +10571,15 @@
       <c r="I141" s="2">
         <v>0</v>
       </c>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
+      <c r="J141" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M141" s="2" t="s">
         <v>16</v>
       </c>
@@ -9522,8 +10597,8 @@
       <c r="D142" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>23</v>
+      <c r="E142" t="s">
+        <v>13</v>
       </c>
       <c r="F142" s="2">
         <v>-0.25</v>
@@ -9537,9 +10612,15 @@
       <c r="I142" s="2">
         <v>0</v>
       </c>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
+      <c r="J142" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M142" s="2" t="s">
         <v>17</v>
       </c>
@@ -9557,8 +10638,8 @@
       <c r="D143" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>23</v>
+      <c r="E143" t="s">
+        <v>13</v>
       </c>
       <c r="F143" s="2">
         <v>-0.25</v>
@@ -9572,9 +10653,15 @@
       <c r="I143" s="2">
         <v>0</v>
       </c>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
+      <c r="J143" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M143" s="2" t="s">
         <v>16</v>
       </c>
@@ -9592,8 +10679,8 @@
       <c r="D144" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>23</v>
+      <c r="E144" t="s">
+        <v>13</v>
       </c>
       <c r="F144" s="2">
         <v>-0.25</v>
@@ -9607,9 +10694,15 @@
       <c r="I144" s="2">
         <v>0</v>
       </c>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
+      <c r="J144" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M144" s="2" t="s">
         <v>17</v>
       </c>
@@ -9627,8 +10720,8 @@
       <c r="D145" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>23</v>
+      <c r="E145" t="s">
+        <v>13</v>
       </c>
       <c r="F145" s="2">
         <v>-0.25</v>
@@ -9642,9 +10735,15 @@
       <c r="I145" s="2">
         <v>0</v>
       </c>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
+      <c r="J145" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M145" s="2" t="s">
         <v>16</v>
       </c>
@@ -9662,7 +10761,7 @@
       <c r="D146" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" t="s">
         <v>13</v>
       </c>
       <c r="F146" s="2">
@@ -9677,9 +10776,15 @@
       <c r="I146" s="2">
         <v>0</v>
       </c>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
+      <c r="J146" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M146" s="2" t="s">
         <v>17</v>
       </c>
@@ -9697,7 +10802,7 @@
       <c r="D147" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" t="s">
         <v>13</v>
       </c>
       <c r="F147" s="2">
@@ -9712,9 +10817,15 @@
       <c r="I147" s="2">
         <v>0</v>
       </c>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
+      <c r="J147" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M147" s="2" t="s">
         <v>16</v>
       </c>
@@ -9732,7 +10843,7 @@
       <c r="D148" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" t="s">
         <v>13</v>
       </c>
       <c r="F148" s="2">
@@ -9747,9 +10858,15 @@
       <c r="I148" s="2">
         <v>0</v>
       </c>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
+      <c r="J148" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M148" s="2" t="s">
         <v>17</v>
       </c>
@@ -9767,7 +10884,7 @@
       <c r="D149" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" t="s">
         <v>13</v>
       </c>
       <c r="F149" s="2">
@@ -9782,9 +10899,15 @@
       <c r="I149" s="2">
         <v>0</v>
       </c>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
+      <c r="J149" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M149" s="2" t="s">
         <v>16</v>
       </c>
@@ -9802,8 +10925,8 @@
       <c r="D150" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>23</v>
+      <c r="E150" t="s">
+        <v>13</v>
       </c>
       <c r="F150" s="2">
         <v>-0.25</v>
@@ -9817,9 +10940,15 @@
       <c r="I150" s="2">
         <v>0</v>
       </c>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
+      <c r="J150" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M150" s="2" t="s">
         <v>17</v>
       </c>
@@ -9837,8 +10966,8 @@
       <c r="D151" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>23</v>
+      <c r="E151" t="s">
+        <v>13</v>
       </c>
       <c r="F151" s="2">
         <v>-0.25</v>
@@ -9852,9 +10981,15 @@
       <c r="I151" s="2">
         <v>0</v>
       </c>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
+      <c r="J151" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M151" s="2" t="s">
         <v>16</v>
       </c>
@@ -9872,8 +11007,8 @@
       <c r="D152" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>23</v>
+      <c r="E152" t="s">
+        <v>13</v>
       </c>
       <c r="F152" s="2">
         <v>-0.25</v>
@@ -9887,9 +11022,15 @@
       <c r="I152" s="2">
         <v>0</v>
       </c>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
+      <c r="J152" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M152" s="2" t="s">
         <v>16</v>
       </c>
@@ -9907,8 +11048,8 @@
       <c r="D153" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>23</v>
+      <c r="E153" t="s">
+        <v>13</v>
       </c>
       <c r="F153" s="2">
         <v>-0.25</v>
@@ -9922,9 +11063,15 @@
       <c r="I153" s="2">
         <v>0</v>
       </c>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
+      <c r="J153" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M153" s="2" t="s">
         <v>17</v>
       </c>
@@ -9942,7 +11089,7 @@
       <c r="D154" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" t="s">
         <v>13</v>
       </c>
       <c r="F154" s="2">
@@ -9957,9 +11104,15 @@
       <c r="I154" s="2">
         <v>0</v>
       </c>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
+      <c r="J154" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M154" s="2" t="s">
         <v>16</v>
       </c>
@@ -9977,7 +11130,7 @@
       <c r="D155" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" t="s">
         <v>13</v>
       </c>
       <c r="F155" s="2">
@@ -9992,9 +11145,15 @@
       <c r="I155" s="2">
         <v>0</v>
       </c>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
+      <c r="J155" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M155" s="2" t="s">
         <v>17</v>
       </c>
@@ -10012,7 +11171,7 @@
       <c r="D156" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" t="s">
         <v>13</v>
       </c>
       <c r="F156" s="2">
@@ -10027,9 +11186,15 @@
       <c r="I156" s="2">
         <v>0</v>
       </c>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
+      <c r="J156" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M156" s="2" t="s">
         <v>16</v>
       </c>
@@ -10047,7 +11212,7 @@
       <c r="D157" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" t="s">
         <v>13</v>
       </c>
       <c r="F157" s="2">
@@ -10062,9 +11227,15 @@
       <c r="I157" s="2">
         <v>0</v>
       </c>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
+      <c r="J157" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M157" s="2" t="s">
         <v>17</v>
       </c>
@@ -10082,8 +11253,8 @@
       <c r="D158" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>23</v>
+      <c r="E158" t="s">
+        <v>13</v>
       </c>
       <c r="F158" s="2">
         <v>-0.25</v>
@@ -10097,9 +11268,15 @@
       <c r="I158" s="2">
         <v>0</v>
       </c>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
+      <c r="J158" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M158" s="2" t="s">
         <v>16</v>
       </c>
@@ -10117,8 +11294,8 @@
       <c r="D159" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>23</v>
+      <c r="E159" t="s">
+        <v>13</v>
       </c>
       <c r="F159" s="2">
         <v>-0.25</v>
@@ -10132,9 +11309,15 @@
       <c r="I159" s="2">
         <v>0</v>
       </c>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
+      <c r="J159" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M159" s="2" t="s">
         <v>17</v>
       </c>
@@ -10152,8 +11335,8 @@
       <c r="D160" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>23</v>
+      <c r="E160" t="s">
+        <v>13</v>
       </c>
       <c r="F160" s="2">
         <v>-0.25</v>
@@ -10167,9 +11350,15 @@
       <c r="I160" s="2">
         <v>0</v>
       </c>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
+      <c r="J160" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M160" s="2" t="s">
         <v>16</v>
       </c>
@@ -10187,8 +11376,8 @@
       <c r="D161" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>23</v>
+      <c r="E161" t="s">
+        <v>13</v>
       </c>
       <c r="F161" s="2">
         <v>-0.25</v>
@@ -10202,9 +11391,15 @@
       <c r="I161" s="2">
         <v>0</v>
       </c>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
+      <c r="J161" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M161" s="2" t="s">
         <v>17</v>
       </c>
@@ -10222,7 +11417,7 @@
       <c r="D162" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" t="s">
         <v>13</v>
       </c>
       <c r="F162" s="2">
@@ -10237,9 +11432,15 @@
       <c r="I162" s="2">
         <v>0</v>
       </c>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
+      <c r="J162" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M162" s="2" t="s">
         <v>16</v>
       </c>
@@ -10257,7 +11458,7 @@
       <c r="D163" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" t="s">
         <v>13</v>
       </c>
       <c r="F163" s="2">
@@ -10272,9 +11473,15 @@
       <c r="I163" s="2">
         <v>0</v>
       </c>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
+      <c r="J163" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M163" s="2" t="s">
         <v>17</v>
       </c>
@@ -10292,7 +11499,7 @@
       <c r="D164" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" t="s">
         <v>13</v>
       </c>
       <c r="F164" s="2">
@@ -10307,9 +11514,15 @@
       <c r="I164" s="2">
         <v>0</v>
       </c>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
+      <c r="J164" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M164" s="2" t="s">
         <v>16</v>
       </c>
@@ -10327,7 +11540,7 @@
       <c r="D165" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" t="s">
         <v>13</v>
       </c>
       <c r="F165" s="2">
@@ -10342,9 +11555,15 @@
       <c r="I165" s="2">
         <v>0</v>
       </c>
-      <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
+      <c r="J165" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M165" s="2" t="s">
         <v>17</v>
       </c>
@@ -10362,8 +11581,8 @@
       <c r="D166" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>23</v>
+      <c r="E166" t="s">
+        <v>13</v>
       </c>
       <c r="F166" s="2">
         <v>-0.25</v>
@@ -10377,9 +11596,15 @@
       <c r="I166" s="2">
         <v>0</v>
       </c>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
+      <c r="J166" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M166" s="2" t="s">
         <v>16</v>
       </c>
@@ -10397,8 +11622,8 @@
       <c r="D167" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>23</v>
+      <c r="E167" t="s">
+        <v>13</v>
       </c>
       <c r="F167" s="2">
         <v>-0.25</v>
@@ -10412,9 +11637,15 @@
       <c r="I167" s="2">
         <v>0</v>
       </c>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
+      <c r="J167" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M167" s="2" t="s">
         <v>17</v>
       </c>
@@ -10432,8 +11663,8 @@
       <c r="D168" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>23</v>
+      <c r="E168" t="s">
+        <v>13</v>
       </c>
       <c r="F168" s="2">
         <v>-0.25</v>
@@ -10447,9 +11678,15 @@
       <c r="I168" s="2">
         <v>0</v>
       </c>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
+      <c r="J168" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M168" s="2" t="s">
         <v>16</v>
       </c>
@@ -10467,8 +11704,8 @@
       <c r="D169" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>23</v>
+      <c r="E169" t="s">
+        <v>13</v>
       </c>
       <c r="F169" s="2">
         <v>-0.25</v>
@@ -10482,9 +11719,15 @@
       <c r="I169" s="2">
         <v>0</v>
       </c>
-      <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
+      <c r="J169" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L169" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M169" s="2" t="s">
         <v>17</v>
       </c>
@@ -10502,7 +11745,7 @@
       <c r="D170" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" t="s">
         <v>13</v>
       </c>
       <c r="F170" s="2">
@@ -10517,9 +11760,15 @@
       <c r="I170" s="2">
         <v>0</v>
       </c>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
+      <c r="J170" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M170" s="2" t="s">
         <v>16</v>
       </c>
@@ -10537,7 +11786,7 @@
       <c r="D171" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" t="s">
         <v>13</v>
       </c>
       <c r="F171" s="2">
@@ -10552,9 +11801,15 @@
       <c r="I171" s="2">
         <v>0</v>
       </c>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
+      <c r="J171" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M171" s="2" t="s">
         <v>17</v>
       </c>
@@ -10572,7 +11827,7 @@
       <c r="D172" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" t="s">
         <v>13</v>
       </c>
       <c r="F172" s="2">
@@ -10587,9 +11842,15 @@
       <c r="I172" s="2">
         <v>0</v>
       </c>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
+      <c r="J172" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M172" s="2" t="s">
         <v>16</v>
       </c>
@@ -10607,7 +11868,7 @@
       <c r="D173" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" t="s">
         <v>13</v>
       </c>
       <c r="F173" s="2">
@@ -10622,9 +11883,15 @@
       <c r="I173" s="2">
         <v>0</v>
       </c>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
+      <c r="J173" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M173" s="2" t="s">
         <v>17</v>
       </c>
@@ -10642,8 +11909,8 @@
       <c r="D174" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>23</v>
+      <c r="E174" t="s">
+        <v>13</v>
       </c>
       <c r="F174" s="2">
         <v>-0.25</v>
@@ -10657,9 +11924,15 @@
       <c r="I174" s="2">
         <v>0</v>
       </c>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
+      <c r="J174" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M174" s="2" t="s">
         <v>16</v>
       </c>
@@ -10677,8 +11950,8 @@
       <c r="D175" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>23</v>
+      <c r="E175" t="s">
+        <v>13</v>
       </c>
       <c r="F175" s="2">
         <v>-0.25</v>
@@ -10692,9 +11965,15 @@
       <c r="I175" s="2">
         <v>0</v>
       </c>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
+      <c r="J175" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M175" s="2" t="s">
         <v>17</v>
       </c>
@@ -10712,8 +11991,8 @@
       <c r="D176" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>23</v>
+      <c r="E176" t="s">
+        <v>13</v>
       </c>
       <c r="F176" s="2">
         <v>-0.25</v>
@@ -10727,9 +12006,15 @@
       <c r="I176" s="2">
         <v>0</v>
       </c>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
+      <c r="J176" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M176" s="2" t="s">
         <v>16</v>
       </c>
@@ -10747,8 +12032,8 @@
       <c r="D177" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>23</v>
+      <c r="E177" t="s">
+        <v>13</v>
       </c>
       <c r="F177" s="2">
         <v>-0.25</v>
@@ -10762,9 +12047,15 @@
       <c r="I177" s="2">
         <v>0</v>
       </c>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
+      <c r="J177" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M177" s="2" t="s">
         <v>17</v>
       </c>
@@ -10782,7 +12073,7 @@
       <c r="D178" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E178" t="s">
         <v>13</v>
       </c>
       <c r="F178" s="2">
@@ -10797,9 +12088,15 @@
       <c r="I178" s="2">
         <v>0</v>
       </c>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
+      <c r="J178" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M178" s="2" t="s">
         <v>16</v>
       </c>
@@ -10817,7 +12114,7 @@
       <c r="D179" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E179" t="s">
         <v>13</v>
       </c>
       <c r="F179" s="2">
@@ -10832,9 +12129,15 @@
       <c r="I179" s="2">
         <v>0</v>
       </c>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
+      <c r="J179" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M179" s="2" t="s">
         <v>17</v>
       </c>
@@ -10852,7 +12155,7 @@
       <c r="D180" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E180" t="s">
         <v>13</v>
       </c>
       <c r="F180" s="2">
@@ -10867,9 +12170,15 @@
       <c r="I180" s="2">
         <v>0</v>
       </c>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
+      <c r="J180" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M180" s="2" t="s">
         <v>16</v>
       </c>
@@ -10887,7 +12196,7 @@
       <c r="D181" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" t="s">
         <v>13</v>
       </c>
       <c r="F181" s="2">
@@ -10902,9 +12211,15 @@
       <c r="I181" s="2">
         <v>0</v>
       </c>
-      <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
+      <c r="J181" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M181" s="2" t="s">
         <v>17</v>
       </c>
@@ -10922,8 +12237,8 @@
       <c r="D182" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>23</v>
+      <c r="E182" t="s">
+        <v>13</v>
       </c>
       <c r="F182" s="2">
         <v>-0.25</v>
@@ -10937,9 +12252,15 @@
       <c r="I182" s="2">
         <v>0</v>
       </c>
-      <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
+      <c r="J182" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L182" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M182" s="2" t="s">
         <v>16</v>
       </c>
@@ -10957,8 +12278,8 @@
       <c r="D183" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>23</v>
+      <c r="E183" t="s">
+        <v>13</v>
       </c>
       <c r="F183" s="2">
         <v>-0.25</v>
@@ -10972,9 +12293,15 @@
       <c r="I183" s="2">
         <v>0</v>
       </c>
-      <c r="J183" s="2"/>
-      <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
+      <c r="J183" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M183" s="2" t="s">
         <v>17</v>
       </c>
@@ -10992,8 +12319,8 @@
       <c r="D184" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>23</v>
+      <c r="E184" t="s">
+        <v>13</v>
       </c>
       <c r="F184" s="2">
         <v>-0.25</v>
@@ -11007,9 +12334,15 @@
       <c r="I184" s="2">
         <v>0</v>
       </c>
-      <c r="J184" s="2"/>
-      <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
+      <c r="J184" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L184" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M184" s="2" t="s">
         <v>16</v>
       </c>
@@ -11027,8 +12360,8 @@
       <c r="D185" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>23</v>
+      <c r="E185" t="s">
+        <v>13</v>
       </c>
       <c r="F185" s="2">
         <v>-0.25</v>
@@ -11042,9 +12375,15 @@
       <c r="I185" s="2">
         <v>0</v>
       </c>
-      <c r="J185" s="2"/>
-      <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
+      <c r="J185" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M185" s="2" t="s">
         <v>17</v>
       </c>
@@ -11062,7 +12401,7 @@
       <c r="D186" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="E186" t="s">
         <v>13</v>
       </c>
       <c r="F186" s="2">
@@ -11077,9 +12416,15 @@
       <c r="I186" s="2">
         <v>0</v>
       </c>
-      <c r="J186" s="2"/>
-      <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
+      <c r="J186" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M186" s="2" t="s">
         <v>16</v>
       </c>
@@ -11097,7 +12442,7 @@
       <c r="D187" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" t="s">
         <v>13</v>
       </c>
       <c r="F187" s="2">
@@ -11112,9 +12457,15 @@
       <c r="I187" s="2">
         <v>0</v>
       </c>
-      <c r="J187" s="2"/>
-      <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
+      <c r="J187" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L187" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M187" s="2" t="s">
         <v>17</v>
       </c>
@@ -11132,7 +12483,7 @@
       <c r="D188" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" t="s">
         <v>13</v>
       </c>
       <c r="F188" s="2">
@@ -11147,14 +12498,20 @@
       <c r="I188" s="2">
         <v>0</v>
       </c>
-      <c r="J188" s="2"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
+      <c r="J188" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L188" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M188" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>584</v>
       </c>
@@ -11167,7 +12524,7 @@
       <c r="D189" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" t="s">
         <v>13</v>
       </c>
       <c r="F189" s="2">
@@ -11182,14 +12539,20 @@
       <c r="I189" s="2">
         <v>0</v>
       </c>
-      <c r="J189" s="2"/>
-      <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
+      <c r="J189" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L189" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M189" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>586</v>
       </c>
@@ -11202,7 +12565,7 @@
       <c r="D190" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E190" t="s">
         <v>23</v>
       </c>
       <c r="F190" s="2">
@@ -11217,9 +12580,15 @@
       <c r="I190" s="2">
         <v>0</v>
       </c>
-      <c r="J190" s="2"/>
-      <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
+      <c r="J190" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M190" s="2" t="s">
         <v>16</v>
       </c>
@@ -11237,7 +12606,7 @@
       <c r="D191" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" t="s">
         <v>23</v>
       </c>
       <c r="F191" s="2">
@@ -11252,14 +12621,20 @@
       <c r="I191" s="2">
         <v>0</v>
       </c>
-      <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
+      <c r="J191" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M191" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>590</v>
       </c>
@@ -11272,7 +12647,7 @@
       <c r="D192" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E192" t="s">
         <v>23</v>
       </c>
       <c r="F192" s="2">
@@ -11287,14 +12662,20 @@
       <c r="I192" s="2">
         <v>0</v>
       </c>
-      <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
+      <c r="J192" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M192" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>592</v>
       </c>
@@ -11307,7 +12688,7 @@
       <c r="D193" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E193" t="s">
         <v>23</v>
       </c>
       <c r="F193" s="2">
@@ -11322,14 +12703,20 @@
       <c r="I193" s="2">
         <v>0</v>
       </c>
-      <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
+      <c r="J193" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M193" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>594</v>
       </c>
@@ -11342,8 +12729,8 @@
       <c r="D194" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>13</v>
+      <c r="E194" t="s">
+        <v>23</v>
       </c>
       <c r="F194" s="2">
         <v>0.25</v>
@@ -11357,9 +12744,15 @@
       <c r="I194" s="2">
         <v>0</v>
       </c>
-      <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
+      <c r="J194" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M194" s="2" t="s">
         <v>16</v>
       </c>
@@ -11377,8 +12770,8 @@
       <c r="D195" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>13</v>
+      <c r="E195" t="s">
+        <v>23</v>
       </c>
       <c r="F195" s="2">
         <v>0.25</v>
@@ -11392,9 +12785,15 @@
       <c r="I195" s="2">
         <v>0</v>
       </c>
-      <c r="J195" s="2"/>
-      <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
+      <c r="J195" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M195" s="2" t="s">
         <v>17</v>
       </c>
@@ -11412,8 +12811,8 @@
       <c r="D196" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>13</v>
+      <c r="E196" t="s">
+        <v>23</v>
       </c>
       <c r="F196" s="2">
         <v>0.25</v>
@@ -11427,9 +12826,15 @@
       <c r="I196" s="2">
         <v>0</v>
       </c>
-      <c r="J196" s="2"/>
-      <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
+      <c r="J196" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L196" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M196" s="2" t="s">
         <v>16</v>
       </c>
@@ -11447,8 +12852,8 @@
       <c r="D197" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>13</v>
+      <c r="E197" t="s">
+        <v>23</v>
       </c>
       <c r="F197" s="2">
         <v>0.25</v>
@@ -11462,14 +12867,20 @@
       <c r="I197" s="2">
         <v>0</v>
       </c>
-      <c r="J197" s="2"/>
-      <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
+      <c r="J197" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M197" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>602</v>
       </c>
@@ -11482,7 +12893,7 @@
       <c r="D198" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E198" t="s">
         <v>23</v>
       </c>
       <c r="F198" s="2">
@@ -11497,14 +12908,20 @@
       <c r="I198" s="2">
         <v>0</v>
       </c>
-      <c r="J198" s="2"/>
-      <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
+      <c r="J198" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M198" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>604</v>
       </c>
@@ -11517,7 +12934,7 @@
       <c r="D199" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" t="s">
         <v>23</v>
       </c>
       <c r="F199" s="2">
@@ -11532,9 +12949,15 @@
       <c r="I199" s="2">
         <v>0</v>
       </c>
-      <c r="J199" s="2"/>
-      <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
+      <c r="J199" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M199" s="2" t="s">
         <v>17</v>
       </c>
@@ -11552,7 +12975,7 @@
       <c r="D200" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" t="s">
         <v>23</v>
       </c>
       <c r="F200" s="2">
@@ -11567,9 +12990,15 @@
       <c r="I200" s="2">
         <v>0</v>
       </c>
-      <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
+      <c r="J200" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M200" s="2" t="s">
         <v>16</v>
       </c>
@@ -11587,7 +13016,7 @@
       <c r="D201" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="E201" t="s">
         <v>23</v>
       </c>
       <c r="F201" s="2">
@@ -11602,14 +13031,20 @@
       <c r="I201" s="2">
         <v>0</v>
       </c>
-      <c r="J201" s="2"/>
-      <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
+      <c r="J201" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M201" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>610</v>
       </c>
@@ -11622,8 +13057,8 @@
       <c r="D202" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>13</v>
+      <c r="E202" t="s">
+        <v>23</v>
       </c>
       <c r="F202" s="2">
         <v>0.25</v>
@@ -11637,14 +13072,20 @@
       <c r="I202" s="2">
         <v>0</v>
       </c>
-      <c r="J202" s="2"/>
-      <c r="K202" s="2"/>
-      <c r="L202" s="2"/>
+      <c r="J202" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M202" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>612</v>
       </c>
@@ -11657,8 +13098,8 @@
       <c r="D203" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>13</v>
+      <c r="E203" t="s">
+        <v>23</v>
       </c>
       <c r="F203" s="2">
         <v>0.25</v>
@@ -11672,9 +13113,15 @@
       <c r="I203" s="2">
         <v>0</v>
       </c>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
+      <c r="J203" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M203" s="2" t="s">
         <v>17</v>
       </c>
@@ -11692,8 +13139,8 @@
       <c r="D204" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>13</v>
+      <c r="E204" t="s">
+        <v>23</v>
       </c>
       <c r="F204" s="2">
         <v>0.25</v>
@@ -11707,9 +13154,15 @@
       <c r="I204" s="2">
         <v>0</v>
       </c>
-      <c r="J204" s="2"/>
-      <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
+      <c r="J204" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M204" s="2" t="s">
         <v>16</v>
       </c>
@@ -11727,8 +13180,8 @@
       <c r="D205" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>13</v>
+      <c r="E205" t="s">
+        <v>23</v>
       </c>
       <c r="F205" s="2">
         <v>0.25</v>
@@ -11742,14 +13195,20 @@
       <c r="I205" s="2">
         <v>0</v>
       </c>
-      <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
+      <c r="J205" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M205" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>617</v>
       </c>
@@ -11762,7 +13221,7 @@
       <c r="D206" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" t="s">
         <v>23</v>
       </c>
       <c r="F206" s="2">
@@ -11777,14 +13236,20 @@
       <c r="I206" s="2">
         <v>0</v>
       </c>
-      <c r="J206" s="2"/>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
+      <c r="J206" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M206" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>619</v>
       </c>
@@ -11797,7 +13262,7 @@
       <c r="D207" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" t="s">
         <v>23</v>
       </c>
       <c r="F207" s="2">
@@ -11812,14 +13277,20 @@
       <c r="I207" s="2">
         <v>0</v>
       </c>
-      <c r="J207" s="2"/>
-      <c r="K207" s="2"/>
-      <c r="L207" s="2"/>
+      <c r="J207" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M207" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>621</v>
       </c>
@@ -11832,7 +13303,7 @@
       <c r="D208" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" t="s">
         <v>23</v>
       </c>
       <c r="F208" s="2">
@@ -11847,14 +13318,20 @@
       <c r="I208" s="2">
         <v>0</v>
       </c>
-      <c r="J208" s="2"/>
-      <c r="K208" s="2"/>
-      <c r="L208" s="2"/>
+      <c r="J208" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L208" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M208" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>623</v>
       </c>
@@ -11867,7 +13344,7 @@
       <c r="D209" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" t="s">
         <v>23</v>
       </c>
       <c r="F209" s="2">
@@ -11882,14 +13359,20 @@
       <c r="I209" s="2">
         <v>0</v>
       </c>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
+      <c r="J209" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L209" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M209" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>625</v>
       </c>
@@ -11902,8 +13385,8 @@
       <c r="D210" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>13</v>
+      <c r="E210" t="s">
+        <v>23</v>
       </c>
       <c r="F210" s="2">
         <v>0.25</v>
@@ -11917,14 +13400,20 @@
       <c r="I210" s="2">
         <v>0</v>
       </c>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
+      <c r="J210" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L210" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M210" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>627</v>
       </c>
@@ -11937,8 +13426,8 @@
       <c r="D211" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>13</v>
+      <c r="E211" t="s">
+        <v>23</v>
       </c>
       <c r="F211" s="2">
         <v>0.25</v>
@@ -11952,14 +13441,20 @@
       <c r="I211" s="2">
         <v>0</v>
       </c>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
+      <c r="J211" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L211" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M211" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>629</v>
       </c>
@@ -11972,8 +13467,8 @@
       <c r="D212" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>13</v>
+      <c r="E212" t="s">
+        <v>23</v>
       </c>
       <c r="F212" s="2">
         <v>0.25</v>
@@ -11987,14 +13482,20 @@
       <c r="I212" s="2">
         <v>0</v>
       </c>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
+      <c r="J212" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L212" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M212" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>631</v>
       </c>
@@ -12007,8 +13508,8 @@
       <c r="D213" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>13</v>
+      <c r="E213" t="s">
+        <v>23</v>
       </c>
       <c r="F213" s="2">
         <v>0.25</v>
@@ -12022,9 +13523,15 @@
       <c r="I213" s="2">
         <v>0</v>
       </c>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
+      <c r="J213" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L213" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M213" s="2" t="s">
         <v>17</v>
       </c>
@@ -12042,7 +13549,7 @@
       <c r="D214" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" t="s">
         <v>23</v>
       </c>
       <c r="F214" s="2">
@@ -12057,9 +13564,15 @@
       <c r="I214" s="2">
         <v>0</v>
       </c>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
+      <c r="J214" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K214" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L214" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M214" s="2" t="s">
         <v>16</v>
       </c>
@@ -12077,7 +13590,7 @@
       <c r="D215" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" t="s">
         <v>23</v>
       </c>
       <c r="F215" s="2">
@@ -12092,9 +13605,15 @@
       <c r="I215" s="2">
         <v>0</v>
       </c>
-      <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
+      <c r="J215" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L215" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M215" s="2" t="s">
         <v>17</v>
       </c>
@@ -12112,7 +13631,7 @@
       <c r="D216" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" t="s">
         <v>23</v>
       </c>
       <c r="F216" s="2">
@@ -12127,14 +13646,20 @@
       <c r="I216" s="2">
         <v>0</v>
       </c>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
+      <c r="J216" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K216" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L216" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="M216" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>639</v>
       </c>
@@ -12147,7 +13672,7 @@
       <c r="D217" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E217" t="s">
         <v>23</v>
       </c>
       <c r="F217" s="2">
@@ -12162,9 +13687,15 @@
       <c r="I217" s="2">
         <v>0</v>
       </c>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
+      <c r="J217" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K217" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L217" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M217" s="2" t="s">
         <v>17</v>
       </c>
@@ -12182,8 +13713,8 @@
       <c r="D218" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>13</v>
+      <c r="E218" t="s">
+        <v>23</v>
       </c>
       <c r="F218" s="2">
         <v>0.25</v>
@@ -12197,9 +13728,15 @@
       <c r="I218" s="2">
         <v>0</v>
       </c>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
+      <c r="J218" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K218" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L218" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M218" s="2" t="s">
         <v>16</v>
       </c>
@@ -12217,8 +13754,8 @@
       <c r="D219" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>13</v>
+      <c r="E219" t="s">
+        <v>23</v>
       </c>
       <c r="F219" s="2">
         <v>0.25</v>
@@ -12232,9 +13769,15 @@
       <c r="I219" s="2">
         <v>0</v>
       </c>
-      <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
+      <c r="J219" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K219" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L219" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M219" s="2" t="s">
         <v>17</v>
       </c>
@@ -12252,8 +13795,8 @@
       <c r="D220" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="E220" s="2" t="s">
-        <v>13</v>
+      <c r="E220" t="s">
+        <v>23</v>
       </c>
       <c r="F220" s="2">
         <v>0.25</v>
@@ -12267,14 +13810,20 @@
       <c r="I220" s="2">
         <v>0</v>
       </c>
-      <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
+      <c r="J220" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L220" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M220" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>646</v>
       </c>
@@ -12287,8 +13836,8 @@
       <c r="D221" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="E221" s="2" t="s">
-        <v>13</v>
+      <c r="E221" t="s">
+        <v>23</v>
       </c>
       <c r="F221" s="2">
         <v>0.25</v>
@@ -12302,14 +13851,20 @@
       <c r="I221" s="2">
         <v>0</v>
       </c>
-      <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
+      <c r="J221" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="K221" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L221" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M221" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>648</v>
       </c>
@@ -12322,7 +13877,7 @@
       <c r="D222" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" t="s">
         <v>23</v>
       </c>
       <c r="F222" s="2">
@@ -12337,9 +13892,15 @@
       <c r="I222" s="2">
         <v>0</v>
       </c>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
+      <c r="J222" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L222" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M222" s="2" t="s">
         <v>16</v>
       </c>
@@ -12357,7 +13918,7 @@
       <c r="D223" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" t="s">
         <v>23</v>
       </c>
       <c r="F223" s="2">
@@ -12372,14 +13933,20 @@
       <c r="I223" s="2">
         <v>0</v>
       </c>
-      <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
+      <c r="J223" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K223" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L223" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M223" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>651</v>
       </c>
@@ -12392,7 +13959,7 @@
       <c r="D224" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" t="s">
         <v>23</v>
       </c>
       <c r="F224" s="2">
@@ -12407,14 +13974,20 @@
       <c r="I224" s="2">
         <v>0</v>
       </c>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
+      <c r="J224" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K224" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L224" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M224" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>653</v>
       </c>
@@ -12427,7 +14000,7 @@
       <c r="D225" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E225" t="s">
         <v>23</v>
       </c>
       <c r="F225" s="2">
@@ -12442,14 +14015,20 @@
       <c r="I225" s="2">
         <v>0</v>
       </c>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
+      <c r="J225" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L225" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M225" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>655</v>
       </c>
@@ -12462,8 +14041,8 @@
       <c r="D226" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="E226" s="2" t="s">
-        <v>13</v>
+      <c r="E226" t="s">
+        <v>23</v>
       </c>
       <c r="F226" s="2">
         <v>0.25</v>
@@ -12477,9 +14056,15 @@
       <c r="I226" s="2">
         <v>0</v>
       </c>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
+      <c r="J226" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="K226" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L226" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M226" s="2" t="s">
         <v>16</v>
       </c>
@@ -12497,8 +14082,8 @@
       <c r="D227" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>13</v>
+      <c r="E227" t="s">
+        <v>23</v>
       </c>
       <c r="F227" s="2">
         <v>0.25</v>
@@ -12512,9 +14097,15 @@
       <c r="I227" s="2">
         <v>0</v>
       </c>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
+      <c r="J227" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L227" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M227" s="2" t="s">
         <v>16</v>
       </c>
@@ -12532,8 +14123,8 @@
       <c r="D228" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="E228" s="2" t="s">
-        <v>13</v>
+      <c r="E228" t="s">
+        <v>23</v>
       </c>
       <c r="F228" s="2">
         <v>0.25</v>
@@ -12547,14 +14138,20 @@
       <c r="I228" s="2">
         <v>0</v>
       </c>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
+      <c r="J228" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K228" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L228" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M228" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>661</v>
       </c>
@@ -12567,8 +14164,8 @@
       <c r="D229" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>13</v>
+      <c r="E229" t="s">
+        <v>23</v>
       </c>
       <c r="F229" s="2">
         <v>0.25</v>
@@ -12582,9 +14179,15 @@
       <c r="I229" s="2">
         <v>0</v>
       </c>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
+      <c r="J229" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K229" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L229" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M229" s="2" t="s">
         <v>16</v>
       </c>
@@ -12602,7 +14205,7 @@
       <c r="D230" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E230" t="s">
         <v>23</v>
       </c>
       <c r="F230" s="2">
@@ -12617,14 +14220,20 @@
       <c r="I230" s="2">
         <v>0</v>
       </c>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
+      <c r="J230" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L230" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M230" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>665</v>
       </c>
@@ -12637,7 +14246,7 @@
       <c r="D231" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="E231" t="s">
         <v>23</v>
       </c>
       <c r="F231" s="2">
@@ -12652,14 +14261,20 @@
       <c r="I231" s="2">
         <v>0</v>
       </c>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
+      <c r="J231" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K231" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L231" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M231" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>667</v>
       </c>
@@ -12672,7 +14287,7 @@
       <c r="D232" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E232" t="s">
         <v>23</v>
       </c>
       <c r="F232" s="2">
@@ -12687,9 +14302,15 @@
       <c r="I232" s="2">
         <v>0</v>
       </c>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
+      <c r="J232" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K232" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L232" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M232" s="2" t="s">
         <v>17</v>
       </c>
@@ -12707,7 +14328,7 @@
       <c r="D233" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E233" t="s">
         <v>23</v>
       </c>
       <c r="F233" s="2">
@@ -12722,14 +14343,20 @@
       <c r="I233" s="2">
         <v>0</v>
       </c>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
+      <c r="J233" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K233" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L233" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M233" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>670</v>
       </c>
@@ -12742,8 +14369,8 @@
       <c r="D234" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="E234" s="2" t="s">
-        <v>13</v>
+      <c r="E234" t="s">
+        <v>23</v>
       </c>
       <c r="F234" s="2">
         <v>0.25</v>
@@ -12757,14 +14384,20 @@
       <c r="I234" s="2">
         <v>0</v>
       </c>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
+      <c r="J234" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K234" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L234" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M234" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>672</v>
       </c>
@@ -12777,8 +14410,8 @@
       <c r="D235" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="E235" s="2" t="s">
-        <v>13</v>
+      <c r="E235" t="s">
+        <v>23</v>
       </c>
       <c r="F235" s="2">
         <v>0.25</v>
@@ -12792,14 +14425,20 @@
       <c r="I235" s="2">
         <v>0</v>
       </c>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
+      <c r="J235" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K235" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L235" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M235" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>673</v>
       </c>
@@ -12812,8 +14451,8 @@
       <c r="D236" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="E236" s="2" t="s">
-        <v>13</v>
+      <c r="E236" t="s">
+        <v>23</v>
       </c>
       <c r="F236" s="2">
         <v>0.25</v>
@@ -12827,14 +14466,20 @@
       <c r="I236" s="2">
         <v>0</v>
       </c>
-      <c r="J236" s="2"/>
-      <c r="K236" s="2"/>
-      <c r="L236" s="2"/>
+      <c r="J236" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K236" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L236" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M236" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>675</v>
       </c>
@@ -12847,8 +14492,8 @@
       <c r="D237" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>13</v>
+      <c r="E237" t="s">
+        <v>23</v>
       </c>
       <c r="F237" s="2">
         <v>0.25</v>
@@ -12862,14 +14507,20 @@
       <c r="I237" s="2">
         <v>0</v>
       </c>
-      <c r="J237" s="2"/>
-      <c r="K237" s="2"/>
-      <c r="L237" s="2"/>
+      <c r="J237" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K237" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L237" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M237" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>677</v>
       </c>
@@ -12882,7 +14533,7 @@
       <c r="D238" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E238" t="s">
         <v>23</v>
       </c>
       <c r="F238" s="2">
@@ -12897,9 +14548,15 @@
       <c r="I238" s="2">
         <v>0</v>
       </c>
-      <c r="J238" s="2"/>
-      <c r="K238" s="2"/>
-      <c r="L238" s="2"/>
+      <c r="J238" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K238" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L238" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M238" s="2" t="s">
         <v>17</v>
       </c>
@@ -12917,7 +14574,7 @@
       <c r="D239" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="E239" t="s">
         <v>23</v>
       </c>
       <c r="F239" s="2">
@@ -12932,14 +14589,20 @@
       <c r="I239" s="2">
         <v>0</v>
       </c>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
+      <c r="J239" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K239" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L239" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M239" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>681</v>
       </c>
@@ -12952,7 +14615,7 @@
       <c r="D240" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="E240" t="s">
         <v>23</v>
       </c>
       <c r="F240" s="2">
@@ -12967,14 +14630,20 @@
       <c r="I240" s="2">
         <v>0</v>
       </c>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
+      <c r="J240" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K240" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L240" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M240" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>683</v>
       </c>
@@ -12987,7 +14656,7 @@
       <c r="D241" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="E241" t="s">
         <v>23</v>
       </c>
       <c r="F241" s="2">
@@ -13002,9 +14671,15 @@
       <c r="I241" s="2">
         <v>0</v>
       </c>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
+      <c r="J241" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="K241" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L241" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M241" s="2" t="s">
         <v>16</v>
       </c>
@@ -13022,8 +14697,8 @@
       <c r="D242" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="E242" s="2" t="s">
-        <v>13</v>
+      <c r="E242" t="s">
+        <v>23</v>
       </c>
       <c r="F242" s="2">
         <v>0.25</v>
@@ -13037,9 +14712,15 @@
       <c r="I242" s="2">
         <v>0</v>
       </c>
-      <c r="J242" s="2"/>
-      <c r="K242" s="2"/>
-      <c r="L242" s="2"/>
+      <c r="J242" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K242" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L242" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M242" s="2" t="s">
         <v>17</v>
       </c>
@@ -13057,8 +14738,8 @@
       <c r="D243" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E243" s="2" t="s">
-        <v>13</v>
+      <c r="E243" t="s">
+        <v>23</v>
       </c>
       <c r="F243" s="2">
         <v>0.25</v>
@@ -13072,14 +14753,20 @@
       <c r="I243" s="2">
         <v>0</v>
       </c>
-      <c r="J243" s="2"/>
-      <c r="K243" s="2"/>
-      <c r="L243" s="2"/>
+      <c r="J243" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K243" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L243" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M243" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>689</v>
       </c>
@@ -13092,8 +14779,8 @@
       <c r="D244" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="E244" s="2" t="s">
-        <v>13</v>
+      <c r="E244" t="s">
+        <v>23</v>
       </c>
       <c r="F244" s="2">
         <v>0.25</v>
@@ -13107,14 +14794,20 @@
       <c r="I244" s="2">
         <v>0</v>
       </c>
-      <c r="J244" s="2"/>
-      <c r="K244" s="2"/>
-      <c r="L244" s="2"/>
+      <c r="J244" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K244" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L244" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M244" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>691</v>
       </c>
@@ -13127,8 +14820,8 @@
       <c r="D245" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="E245" s="2" t="s">
-        <v>13</v>
+      <c r="E245" t="s">
+        <v>23</v>
       </c>
       <c r="F245" s="2">
         <v>0.25</v>
@@ -13142,14 +14835,20 @@
       <c r="I245" s="2">
         <v>0</v>
       </c>
-      <c r="J245" s="2"/>
-      <c r="K245" s="2"/>
-      <c r="L245" s="2"/>
+      <c r="J245" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="K245" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L245" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M245" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>693</v>
       </c>
@@ -13162,7 +14861,7 @@
       <c r="D246" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="E246" t="s">
         <v>23</v>
       </c>
       <c r="F246" s="2">
@@ -13177,14 +14876,20 @@
       <c r="I246" s="2">
         <v>0</v>
       </c>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
+      <c r="J246" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K246" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L246" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M246" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>695</v>
       </c>
@@ -13197,7 +14902,7 @@
       <c r="D247" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="E247" t="s">
         <v>23</v>
       </c>
       <c r="F247" s="2">
@@ -13212,9 +14917,15 @@
       <c r="I247" s="2">
         <v>0</v>
       </c>
-      <c r="J247" s="2"/>
-      <c r="K247" s="2"/>
-      <c r="L247" s="2"/>
+      <c r="J247" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K247" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L247" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M247" s="2" t="s">
         <v>16</v>
       </c>
@@ -13232,7 +14943,7 @@
       <c r="D248" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="E248" s="2" t="s">
+      <c r="E248" t="s">
         <v>23</v>
       </c>
       <c r="F248" s="2">
@@ -13247,14 +14958,20 @@
       <c r="I248" s="2">
         <v>0</v>
       </c>
-      <c r="J248" s="2"/>
-      <c r="K248" s="2"/>
-      <c r="L248" s="2"/>
+      <c r="J248" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K248" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L248" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M248" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>699</v>
       </c>
@@ -13267,7 +14984,7 @@
       <c r="D249" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="E249" s="2" t="s">
+      <c r="E249" t="s">
         <v>23</v>
       </c>
       <c r="F249" s="2">
@@ -13282,9 +14999,15 @@
       <c r="I249" s="2">
         <v>0</v>
       </c>
-      <c r="J249" s="2"/>
-      <c r="K249" s="2"/>
-      <c r="L249" s="2"/>
+      <c r="J249" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K249" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L249" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M249" s="2" t="s">
         <v>16</v>
       </c>
@@ -13302,8 +15025,8 @@
       <c r="D250" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="E250" s="2" t="s">
-        <v>13</v>
+      <c r="E250" t="s">
+        <v>23</v>
       </c>
       <c r="F250" s="2">
         <v>0.25</v>
@@ -13317,9 +15040,15 @@
       <c r="I250" s="2">
         <v>0</v>
       </c>
-      <c r="J250" s="2"/>
-      <c r="K250" s="2"/>
-      <c r="L250" s="2"/>
+      <c r="J250" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K250" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L250" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M250" s="2" t="s">
         <v>17</v>
       </c>
@@ -13337,8 +15066,8 @@
       <c r="D251" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="E251" s="2" t="s">
-        <v>13</v>
+      <c r="E251" t="s">
+        <v>23</v>
       </c>
       <c r="F251" s="2">
         <v>0.25</v>
@@ -13352,14 +15081,20 @@
       <c r="I251" s="2">
         <v>0</v>
       </c>
-      <c r="J251" s="2"/>
-      <c r="K251" s="2"/>
-      <c r="L251" s="2"/>
+      <c r="J251" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K251" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L251" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M251" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>705</v>
       </c>
@@ -13372,8 +15107,8 @@
       <c r="D252" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="E252" s="2" t="s">
-        <v>13</v>
+      <c r="E252" t="s">
+        <v>23</v>
       </c>
       <c r="F252" s="2">
         <v>0.25</v>
@@ -13387,9 +15122,15 @@
       <c r="I252" s="2">
         <v>0</v>
       </c>
-      <c r="J252" s="2"/>
-      <c r="K252" s="2"/>
-      <c r="L252" s="2"/>
+      <c r="J252" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K252" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L252" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M252" s="2" t="s">
         <v>17</v>
       </c>
@@ -13407,8 +15148,8 @@
       <c r="D253" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="E253" s="2" t="s">
-        <v>13</v>
+      <c r="E253" t="s">
+        <v>23</v>
       </c>
       <c r="F253" s="2">
         <v>0.25</v>
@@ -13422,14 +15163,20 @@
       <c r="I253" s="2">
         <v>0</v>
       </c>
-      <c r="J253" s="2"/>
-      <c r="K253" s="2"/>
-      <c r="L253" s="2"/>
+      <c r="J253" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K253" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L253" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M253" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>709</v>
       </c>
@@ -13442,7 +15189,7 @@
       <c r="D254" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="E254" s="2" t="s">
+      <c r="E254" t="s">
         <v>23</v>
       </c>
       <c r="F254" s="2">
@@ -13457,9 +15204,15 @@
       <c r="I254" s="2">
         <v>0</v>
       </c>
-      <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
+      <c r="J254" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K254" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L254" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M254" s="2" t="s">
         <v>17</v>
       </c>
@@ -13477,7 +15230,7 @@
       <c r="D255" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="E255" s="2" t="s">
+      <c r="E255" t="s">
         <v>23</v>
       </c>
       <c r="F255" s="2">
@@ -13492,9 +15245,15 @@
       <c r="I255" s="2">
         <v>0</v>
       </c>
-      <c r="J255" s="2"/>
-      <c r="K255" s="2"/>
-      <c r="L255" s="2"/>
+      <c r="J255" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K255" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L255" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M255" s="2" t="s">
         <v>16</v>
       </c>
@@ -13512,7 +15271,7 @@
       <c r="D256" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="E256" s="2" t="s">
+      <c r="E256" t="s">
         <v>23</v>
       </c>
       <c r="F256" s="2">
@@ -13527,9 +15286,15 @@
       <c r="I256" s="2">
         <v>0</v>
       </c>
-      <c r="J256" s="2"/>
-      <c r="K256" s="2"/>
-      <c r="L256" s="2"/>
+      <c r="J256" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K256" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L256" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M256" s="2" t="s">
         <v>17</v>
       </c>
@@ -13547,7 +15312,7 @@
       <c r="D257" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="E257" s="2" t="s">
+      <c r="E257" t="s">
         <v>23</v>
       </c>
       <c r="F257" s="2">
@@ -13562,14 +15327,20 @@
       <c r="I257" s="2">
         <v>0</v>
       </c>
-      <c r="J257" s="2"/>
-      <c r="K257" s="2"/>
-      <c r="L257" s="2"/>
+      <c r="J257" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K257" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L257" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M257" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>717</v>
       </c>
@@ -13582,8 +15353,8 @@
       <c r="D258" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="E258" s="2" t="s">
-        <v>13</v>
+      <c r="E258" t="s">
+        <v>23</v>
       </c>
       <c r="F258" s="2">
         <v>0.25</v>
@@ -13597,14 +15368,20 @@
       <c r="I258" s="2">
         <v>0</v>
       </c>
-      <c r="J258" s="2"/>
-      <c r="K258" s="2"/>
-      <c r="L258" s="2"/>
+      <c r="J258" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K258" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L258" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M258" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>719</v>
       </c>
@@ -13617,8 +15394,8 @@
       <c r="D259" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E259" s="2" t="s">
-        <v>13</v>
+      <c r="E259" t="s">
+        <v>23</v>
       </c>
       <c r="F259" s="2">
         <v>0.25</v>
@@ -13632,14 +15409,20 @@
       <c r="I259" s="2">
         <v>0</v>
       </c>
-      <c r="J259" s="2"/>
-      <c r="K259" s="2"/>
-      <c r="L259" s="2"/>
+      <c r="J259" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K259" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L259" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M259" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>720</v>
       </c>
@@ -13652,8 +15435,8 @@
       <c r="D260" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E260" s="2" t="s">
-        <v>13</v>
+      <c r="E260" t="s">
+        <v>23</v>
       </c>
       <c r="F260" s="2">
         <v>0.25</v>
@@ -13667,14 +15450,20 @@
       <c r="I260" s="2">
         <v>0</v>
       </c>
-      <c r="J260" s="2"/>
-      <c r="K260" s="2"/>
-      <c r="L260" s="2"/>
+      <c r="J260" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K260" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L260" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M260" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>722</v>
       </c>
@@ -13687,8 +15476,8 @@
       <c r="D261" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="E261" s="2" t="s">
-        <v>13</v>
+      <c r="E261" t="s">
+        <v>23</v>
       </c>
       <c r="F261" s="2">
         <v>0.25</v>
@@ -13702,14 +15491,20 @@
       <c r="I261" s="2">
         <v>0</v>
       </c>
-      <c r="J261" s="2"/>
-      <c r="K261" s="2"/>
-      <c r="L261" s="2"/>
+      <c r="J261" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K261" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L261" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M261" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>724</v>
       </c>
@@ -13722,7 +15517,7 @@
       <c r="D262" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E262" t="s">
         <v>23</v>
       </c>
       <c r="F262" s="2">
@@ -13737,9 +15532,15 @@
       <c r="I262" s="2">
         <v>0</v>
       </c>
-      <c r="J262" s="2"/>
-      <c r="K262" s="2"/>
-      <c r="L262" s="2"/>
+      <c r="J262" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K262" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L262" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M262" s="2" t="s">
         <v>17</v>
       </c>
@@ -13757,7 +15558,7 @@
       <c r="D263" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="E263" s="2" t="s">
+      <c r="E263" t="s">
         <v>23</v>
       </c>
       <c r="F263" s="2">
@@ -13772,9 +15573,15 @@
       <c r="I263" s="2">
         <v>0</v>
       </c>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
+      <c r="J263" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K263" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L263" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M263" s="2" t="s">
         <v>16</v>
       </c>
@@ -13792,7 +15599,7 @@
       <c r="D264" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="E264" s="2" t="s">
+      <c r="E264" t="s">
         <v>23</v>
       </c>
       <c r="F264" s="2">
@@ -13807,14 +15614,20 @@
       <c r="I264" s="2">
         <v>0</v>
       </c>
-      <c r="J264" s="2"/>
-      <c r="K264" s="2"/>
-      <c r="L264" s="2"/>
+      <c r="J264" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="K264" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L264" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M264" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>728</v>
       </c>
@@ -13827,7 +15640,7 @@
       <c r="D265" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="E265" s="2" t="s">
+      <c r="E265" t="s">
         <v>23</v>
       </c>
       <c r="F265" s="2">
@@ -13842,9 +15655,15 @@
       <c r="I265" s="2">
         <v>0</v>
       </c>
-      <c r="J265" s="2"/>
-      <c r="K265" s="2"/>
-      <c r="L265" s="2"/>
+      <c r="J265" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="K265" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L265" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M265" s="2" t="s">
         <v>16</v>
       </c>
@@ -13862,8 +15681,8 @@
       <c r="D266" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="E266" s="2" t="s">
-        <v>13</v>
+      <c r="E266" t="s">
+        <v>23</v>
       </c>
       <c r="F266" s="2">
         <v>0.25</v>
@@ -13877,14 +15696,20 @@
       <c r="I266" s="2">
         <v>0</v>
       </c>
-      <c r="J266" s="2"/>
-      <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
+      <c r="J266" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="K266" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L266" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M266" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>732</v>
       </c>
@@ -13897,8 +15722,8 @@
       <c r="D267" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="E267" s="2" t="s">
-        <v>13</v>
+      <c r="E267" t="s">
+        <v>23</v>
       </c>
       <c r="F267" s="2">
         <v>0.25</v>
@@ -13912,9 +15737,15 @@
       <c r="I267" s="2">
         <v>0</v>
       </c>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
+      <c r="J267" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K267" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L267" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M267" s="2" t="s">
         <v>16</v>
       </c>
@@ -13932,8 +15763,8 @@
       <c r="D268" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="E268" s="2" t="s">
-        <v>13</v>
+      <c r="E268" t="s">
+        <v>23</v>
       </c>
       <c r="F268" s="2">
         <v>0.25</v>
@@ -13947,9 +15778,15 @@
       <c r="I268" s="2">
         <v>0</v>
       </c>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
+      <c r="J268" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K268" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L268" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M268" s="2" t="s">
         <v>17</v>
       </c>
@@ -13967,8 +15804,8 @@
       <c r="D269" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="E269" s="2" t="s">
-        <v>13</v>
+      <c r="E269" t="s">
+        <v>23</v>
       </c>
       <c r="F269" s="2">
         <v>0.25</v>
@@ -13982,9 +15819,15 @@
       <c r="I269" s="2">
         <v>0</v>
       </c>
-      <c r="J269" s="2"/>
-      <c r="K269" s="2"/>
-      <c r="L269" s="2"/>
+      <c r="J269" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="K269" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L269" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M269" s="2" t="s">
         <v>16</v>
       </c>
@@ -14002,7 +15845,7 @@
       <c r="D270" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="E270" s="2" t="s">
+      <c r="E270" t="s">
         <v>23</v>
       </c>
       <c r="F270" s="2">
@@ -14017,14 +15860,20 @@
       <c r="I270" s="2">
         <v>0</v>
       </c>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
+      <c r="J270" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K270" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L270" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M270" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>740</v>
       </c>
@@ -14037,7 +15886,7 @@
       <c r="D271" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="E271" s="2" t="s">
+      <c r="E271" t="s">
         <v>23</v>
       </c>
       <c r="F271" s="2">
@@ -14052,9 +15901,15 @@
       <c r="I271" s="2">
         <v>0</v>
       </c>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
+      <c r="J271" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="K271" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L271" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M271" s="2" t="s">
         <v>16</v>
       </c>
@@ -14072,7 +15927,7 @@
       <c r="D272" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="E272" s="2" t="s">
+      <c r="E272" t="s">
         <v>23</v>
       </c>
       <c r="F272" s="2">
@@ -14087,9 +15942,15 @@
       <c r="I272" s="2">
         <v>0</v>
       </c>
-      <c r="J272" s="2"/>
-      <c r="K272" s="2"/>
-      <c r="L272" s="2"/>
+      <c r="J272" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="K272" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L272" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M272" s="2" t="s">
         <v>17</v>
       </c>
@@ -14107,7 +15968,7 @@
       <c r="D273" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="E273" s="2" t="s">
+      <c r="E273" t="s">
         <v>23</v>
       </c>
       <c r="F273" s="2">
@@ -14122,9 +15983,15 @@
       <c r="I273" s="2">
         <v>0</v>
       </c>
-      <c r="J273" s="2"/>
-      <c r="K273" s="2"/>
-      <c r="L273" s="2"/>
+      <c r="J273" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K273" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L273" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M273" s="2" t="s">
         <v>16</v>
       </c>
@@ -14142,8 +16009,8 @@
       <c r="D274" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="E274" s="2" t="s">
-        <v>13</v>
+      <c r="E274" t="s">
+        <v>23</v>
       </c>
       <c r="F274" s="2">
         <v>0.25</v>
@@ -14157,14 +16024,20 @@
       <c r="I274" s="2">
         <v>0</v>
       </c>
-      <c r="J274" s="2"/>
-      <c r="K274" s="2"/>
-      <c r="L274" s="2"/>
+      <c r="J274" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K274" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L274" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M274" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>748</v>
       </c>
@@ -14177,8 +16050,8 @@
       <c r="D275" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="E275" s="2" t="s">
-        <v>13</v>
+      <c r="E275" t="s">
+        <v>23</v>
       </c>
       <c r="F275" s="2">
         <v>0.25</v>
@@ -14192,9 +16065,15 @@
       <c r="I275" s="2">
         <v>0</v>
       </c>
-      <c r="J275" s="2"/>
-      <c r="K275" s="2"/>
-      <c r="L275" s="2"/>
+      <c r="J275" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K275" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L275" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M275" s="2" t="s">
         <v>16</v>
       </c>
@@ -14212,8 +16091,8 @@
       <c r="D276" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="E276" s="2" t="s">
-        <v>13</v>
+      <c r="E276" t="s">
+        <v>23</v>
       </c>
       <c r="F276" s="2">
         <v>0.25</v>
@@ -14227,14 +16106,20 @@
       <c r="I276" s="2">
         <v>0</v>
       </c>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
-      <c r="L276" s="2"/>
+      <c r="J276" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K276" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L276" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M276" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>752</v>
       </c>
@@ -14247,8 +16132,8 @@
       <c r="D277" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="E277" s="2" t="s">
-        <v>13</v>
+      <c r="E277" t="s">
+        <v>23</v>
       </c>
       <c r="F277" s="2">
         <v>0.25</v>
@@ -14262,14 +16147,20 @@
       <c r="I277" s="2">
         <v>0</v>
       </c>
-      <c r="J277" s="2"/>
-      <c r="K277" s="2"/>
-      <c r="L277" s="2"/>
+      <c r="J277" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="K277" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L277" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M277" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>754</v>
       </c>
@@ -14282,7 +16173,7 @@
       <c r="D278" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E278" s="2" t="s">
+      <c r="E278" t="s">
         <v>23</v>
       </c>
       <c r="F278" s="2">
@@ -14297,14 +16188,20 @@
       <c r="I278" s="2">
         <v>0</v>
       </c>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2"/>
-      <c r="L278" s="2"/>
+      <c r="J278" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K278" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L278" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M278" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>756</v>
       </c>
@@ -14317,7 +16214,7 @@
       <c r="D279" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="E279" s="2" t="s">
+      <c r="E279" t="s">
         <v>23</v>
       </c>
       <c r="F279" s="2">
@@ -14332,14 +16229,20 @@
       <c r="I279" s="2">
         <v>0</v>
       </c>
-      <c r="J279" s="2"/>
-      <c r="K279" s="2"/>
-      <c r="L279" s="2"/>
+      <c r="J279" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K279" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L279" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M279" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>758</v>
       </c>
@@ -14352,7 +16255,7 @@
       <c r="D280" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="E280" s="2" t="s">
+      <c r="E280" t="s">
         <v>23</v>
       </c>
       <c r="F280" s="2">
@@ -14367,9 +16270,15 @@
       <c r="I280" s="2">
         <v>0</v>
       </c>
-      <c r="J280" s="2"/>
-      <c r="K280" s="2"/>
-      <c r="L280" s="2"/>
+      <c r="J280" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K280" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L280" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M280" s="2" t="s">
         <v>17</v>
       </c>
@@ -14387,7 +16296,7 @@
       <c r="D281" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="E281" s="2" t="s">
+      <c r="E281" t="s">
         <v>23</v>
       </c>
       <c r="F281" s="2">
@@ -14402,14 +16311,20 @@
       <c r="I281" s="2">
         <v>0</v>
       </c>
-      <c r="J281" s="2"/>
-      <c r="K281" s="2"/>
-      <c r="L281" s="2"/>
+      <c r="J281" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K281" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L281" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M281" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>761</v>
       </c>
@@ -14422,8 +16337,8 @@
       <c r="D282" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="E282" s="2" t="s">
-        <v>13</v>
+      <c r="E282" t="s">
+        <v>23</v>
       </c>
       <c r="F282" s="2">
         <v>0.25</v>
@@ -14437,14 +16352,20 @@
       <c r="I282" s="2">
         <v>0</v>
       </c>
-      <c r="J282" s="2"/>
-      <c r="K282" s="2"/>
-      <c r="L282" s="2"/>
+      <c r="J282" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="K282" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L282" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M282" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>763</v>
       </c>
@@ -14457,8 +16378,8 @@
       <c r="D283" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="E283" s="2" t="s">
-        <v>13</v>
+      <c r="E283" t="s">
+        <v>23</v>
       </c>
       <c r="F283" s="2">
         <v>0.25</v>
@@ -14472,14 +16393,20 @@
       <c r="I283" s="2">
         <v>0</v>
       </c>
-      <c r="J283" s="2"/>
-      <c r="K283" s="2"/>
-      <c r="L283" s="2"/>
+      <c r="J283" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K283" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L283" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M283" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>765</v>
       </c>
@@ -14492,8 +16419,8 @@
       <c r="D284" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="E284" s="2" t="s">
-        <v>13</v>
+      <c r="E284" t="s">
+        <v>23</v>
       </c>
       <c r="F284" s="2">
         <v>0.25</v>
@@ -14507,9 +16434,15 @@
       <c r="I284" s="2">
         <v>0</v>
       </c>
-      <c r="J284" s="2"/>
-      <c r="K284" s="2"/>
-      <c r="L284" s="2"/>
+      <c r="J284" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="K284" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L284" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M284" s="2" t="s">
         <v>17</v>
       </c>
@@ -14527,8 +16460,8 @@
       <c r="D285" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="E285" s="2" t="s">
-        <v>13</v>
+      <c r="E285" t="s">
+        <v>23</v>
       </c>
       <c r="F285" s="2">
         <v>0.25</v>
@@ -14542,9 +16475,15 @@
       <c r="I285" s="2">
         <v>0</v>
       </c>
-      <c r="J285" s="2"/>
-      <c r="K285" s="2"/>
-      <c r="L285" s="2"/>
+      <c r="J285" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K285" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L285" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M285" s="2" t="s">
         <v>16</v>
       </c>
@@ -14562,7 +16501,7 @@
       <c r="D286" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E286" s="2" t="s">
+      <c r="E286" t="s">
         <v>23</v>
       </c>
       <c r="F286" s="2">
@@ -14577,14 +16516,20 @@
       <c r="I286" s="2">
         <v>0</v>
       </c>
-      <c r="J286" s="2"/>
-      <c r="K286" s="2"/>
-      <c r="L286" s="2"/>
+      <c r="J286" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K286" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L286" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M286" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>771</v>
       </c>
@@ -14597,7 +16542,7 @@
       <c r="D287" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="E287" s="2" t="s">
+      <c r="E287" t="s">
         <v>23</v>
       </c>
       <c r="F287" s="2">
@@ -14612,14 +16557,20 @@
       <c r="I287" s="2">
         <v>0</v>
       </c>
-      <c r="J287" s="2"/>
-      <c r="K287" s="2"/>
-      <c r="L287" s="2"/>
+      <c r="J287" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K287" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L287" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M287" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>773</v>
       </c>
@@ -14632,7 +16583,7 @@
       <c r="D288" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="E288" s="2" t="s">
+      <c r="E288" t="s">
         <v>23</v>
       </c>
       <c r="F288" s="2">
@@ -14647,14 +16598,20 @@
       <c r="I288" s="2">
         <v>0</v>
       </c>
-      <c r="J288" s="2"/>
-      <c r="K288" s="2"/>
-      <c r="L288" s="2"/>
+      <c r="J288" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="K288" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L288" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M288" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>775</v>
       </c>
@@ -14667,7 +16624,7 @@
       <c r="D289" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="E289" s="2" t="s">
+      <c r="E289" t="s">
         <v>23</v>
       </c>
       <c r="F289" s="2">
@@ -14682,14 +16639,20 @@
       <c r="I289" s="2">
         <v>0</v>
       </c>
-      <c r="J289" s="2"/>
-      <c r="K289" s="2"/>
-      <c r="L289" s="2"/>
+      <c r="J289" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K289" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L289" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M289" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>777</v>
       </c>
@@ -14702,8 +16665,8 @@
       <c r="D290" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="E290" s="2" t="s">
-        <v>13</v>
+      <c r="E290" t="s">
+        <v>23</v>
       </c>
       <c r="F290" s="2">
         <v>0.25</v>
@@ -14717,14 +16680,20 @@
       <c r="I290" s="2">
         <v>0</v>
       </c>
-      <c r="J290" s="2"/>
-      <c r="K290" s="2"/>
-      <c r="L290" s="2"/>
+      <c r="J290" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K290" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L290" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M290" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>779</v>
       </c>
@@ -14737,8 +16706,8 @@
       <c r="D291" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="E291" s="2" t="s">
-        <v>13</v>
+      <c r="E291" t="s">
+        <v>23</v>
       </c>
       <c r="F291" s="2">
         <v>0.25</v>
@@ -14752,14 +16721,20 @@
       <c r="I291" s="2">
         <v>0</v>
       </c>
-      <c r="J291" s="2"/>
-      <c r="K291" s="2"/>
-      <c r="L291" s="2"/>
+      <c r="J291" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K291" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L291" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M291" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>781</v>
       </c>
@@ -14772,8 +16747,8 @@
       <c r="D292" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="E292" s="2" t="s">
-        <v>13</v>
+      <c r="E292" t="s">
+        <v>23</v>
       </c>
       <c r="F292" s="2">
         <v>0.25</v>
@@ -14787,14 +16762,20 @@
       <c r="I292" s="2">
         <v>0</v>
       </c>
-      <c r="J292" s="2"/>
-      <c r="K292" s="2"/>
-      <c r="L292" s="2"/>
+      <c r="J292" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="K292" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L292" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M292" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>783</v>
       </c>
@@ -14807,8 +16788,8 @@
       <c r="D293" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="E293" s="2" t="s">
-        <v>13</v>
+      <c r="E293" t="s">
+        <v>23</v>
       </c>
       <c r="F293" s="2">
         <v>0.25</v>
@@ -14822,9 +16803,15 @@
       <c r="I293" s="2">
         <v>0</v>
       </c>
-      <c r="J293" s="2"/>
-      <c r="K293" s="2"/>
-      <c r="L293" s="2"/>
+      <c r="J293" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K293" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L293" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M293" s="2" t="s">
         <v>16</v>
       </c>
@@ -14842,7 +16829,7 @@
       <c r="D294" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="E294" s="2" t="s">
+      <c r="E294" t="s">
         <v>23</v>
       </c>
       <c r="F294" s="2">
@@ -14857,14 +16844,20 @@
       <c r="I294" s="2">
         <v>0</v>
       </c>
-      <c r="J294" s="2"/>
-      <c r="K294" s="2"/>
-      <c r="L294" s="2"/>
+      <c r="J294" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="K294" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L294" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M294" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>787</v>
       </c>
@@ -14877,7 +16870,7 @@
       <c r="D295" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="E295" s="2" t="s">
+      <c r="E295" t="s">
         <v>23</v>
       </c>
       <c r="F295" s="2">
@@ -14892,14 +16885,20 @@
       <c r="I295" s="2">
         <v>0</v>
       </c>
-      <c r="J295" s="2"/>
-      <c r="K295" s="2"/>
-      <c r="L295" s="2"/>
+      <c r="J295" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K295" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L295" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M295" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>789</v>
       </c>
@@ -14912,7 +16911,7 @@
       <c r="D296" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="E296" s="2" t="s">
+      <c r="E296" t="s">
         <v>23</v>
       </c>
       <c r="F296" s="2">
@@ -14927,14 +16926,20 @@
       <c r="I296" s="2">
         <v>0</v>
       </c>
-      <c r="J296" s="2"/>
-      <c r="K296" s="2"/>
-      <c r="L296" s="2"/>
+      <c r="J296" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="K296" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L296" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M296" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>791</v>
       </c>
@@ -14947,7 +16952,7 @@
       <c r="D297" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="E297" s="2" t="s">
+      <c r="E297" t="s">
         <v>23</v>
       </c>
       <c r="F297" s="2">
@@ -14962,14 +16967,20 @@
       <c r="I297" s="2">
         <v>0</v>
       </c>
-      <c r="J297" s="2"/>
-      <c r="K297" s="2"/>
-      <c r="L297" s="2"/>
+      <c r="J297" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K297" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L297" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M297" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>793</v>
       </c>
@@ -14982,8 +16993,8 @@
       <c r="D298" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="E298" s="2" t="s">
-        <v>13</v>
+      <c r="E298" t="s">
+        <v>23</v>
       </c>
       <c r="F298" s="2">
         <v>0.25</v>
@@ -14997,14 +17008,20 @@
       <c r="I298" s="2">
         <v>0</v>
       </c>
-      <c r="J298" s="2"/>
-      <c r="K298" s="2"/>
-      <c r="L298" s="2"/>
+      <c r="J298" s="4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K298" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L298" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M298" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>795</v>
       </c>
@@ -15017,8 +17034,8 @@
       <c r="D299" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="E299" s="2" t="s">
-        <v>13</v>
+      <c r="E299" t="s">
+        <v>23</v>
       </c>
       <c r="F299" s="2">
         <v>0.25</v>
@@ -15032,14 +17049,20 @@
       <c r="I299" s="2">
         <v>0</v>
       </c>
-      <c r="J299" s="2"/>
-      <c r="K299" s="2"/>
-      <c r="L299" s="2"/>
+      <c r="J299" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K299" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L299" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M299" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>796</v>
       </c>
@@ -15052,8 +17075,8 @@
       <c r="D300" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E300" s="2" t="s">
-        <v>13</v>
+      <c r="E300" t="s">
+        <v>23</v>
       </c>
       <c r="F300" s="2">
         <v>0.25</v>
@@ -15067,14 +17090,20 @@
       <c r="I300" s="2">
         <v>0</v>
       </c>
-      <c r="J300" s="2"/>
-      <c r="K300" s="2"/>
-      <c r="L300" s="2"/>
+      <c r="J300" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="K300" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L300" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M300" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>798</v>
       </c>
@@ -15087,8 +17116,8 @@
       <c r="D301" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="E301" s="2" t="s">
-        <v>13</v>
+      <c r="E301" t="s">
+        <v>23</v>
       </c>
       <c r="F301" s="2">
         <v>0.25</v>
@@ -15102,9 +17131,15 @@
       <c r="I301" s="2">
         <v>0</v>
       </c>
-      <c r="J301" s="2"/>
-      <c r="K301" s="2"/>
-      <c r="L301" s="2"/>
+      <c r="J301" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K301" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L301" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M301" s="2" t="s">
         <v>16</v>
       </c>

--- a/orange_purple_green/Condition_File_orange_purple_green.xlsx
+++ b/orange_purple_green/Condition_File_orange_purple_green.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/orange_purple_green/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1627454C-AA6C-9641-B358-C86031F9ABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2CED42-D219-3843-9C13-CB880A6B445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="1860" windowWidth="28100" windowHeight="17260" xr2:uid="{526C65A3-8653-B045-81E6-FD1946F289D0}"/>
   </bookViews>
@@ -4791,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E2253F-CEA1-B24A-AC07-FC75E5A8E487}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="E301" sqref="E301"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4858,7 +4858,7 @@
         <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
         <v>-0.25</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>14</v>
@@ -4981,7 +4981,7 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>-0.25</v>
@@ -5186,7 +5186,7 @@
         <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2">
         <v>-0.25</v>

--- a/orange_purple_green/Condition_File_orange_purple_green.xlsx
+++ b/orange_purple_green/Condition_File_orange_purple_green.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/orange_purple_green/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaperr.WIN\Desktop\Marble_Jar_Paradigm\orange_purple_green\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9FF958-D1D5-4A41-B91A-A4BA76D9038D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{526C65A3-8653-B045-81E6-FD1946F289D0}"/>
+    <workbookView xWindow="0" yWindow="735" windowWidth="29400" windowHeight="18375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$301</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4523,8 +4522,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -4555,13 +4554,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4583,7 +4575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4595,9 +4587,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4913,24 +4902,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E2253F-CEA1-B24A-AC07-FC75E5A8E487}">
-  <dimension ref="A1:Q304"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C185" workbookViewId="0">
-      <selection activeCell="K185" sqref="K185"/>
+    <sheetView tabSelected="1" topLeftCell="B298" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.09765625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" customWidth="1"/>
+    <col min="10" max="10" width="27.8984375" customWidth="1"/>
+    <col min="11" max="11" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4983,7 +4972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="200" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>522</v>
       </c>
@@ -5036,7 +5025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>524</v>
       </c>
@@ -5089,7 +5078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>526</v>
       </c>
@@ -5142,7 +5131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>528</v>
       </c>
@@ -5195,7 +5184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>530</v>
       </c>
@@ -5248,7 +5237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>546</v>
       </c>
@@ -5301,7 +5290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>548</v>
       </c>
@@ -5354,7 +5343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>550</v>
       </c>
@@ -5407,7 +5396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>552</v>
       </c>
@@ -5460,7 +5449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>554</v>
       </c>
@@ -5513,7 +5502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>556</v>
       </c>
@@ -5566,7 +5555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>558</v>
       </c>
@@ -5619,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>560</v>
       </c>
@@ -5672,7 +5661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>561</v>
       </c>
@@ -5725,7 +5714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>563</v>
       </c>
@@ -5778,7 +5767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>597</v>
       </c>
@@ -5831,7 +5820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>599</v>
       </c>
@@ -5884,7 +5873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>601</v>
       </c>
@@ -5937,7 +5926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>603</v>
       </c>
@@ -5990,7 +5979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>605</v>
       </c>
@@ -6043,7 +6032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>607</v>
       </c>
@@ -6096,7 +6085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>609</v>
       </c>
@@ -6149,7 +6138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>611</v>
       </c>
@@ -6202,7 +6191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>613</v>
       </c>
@@ -6255,7 +6244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>615</v>
       </c>
@@ -6308,7 +6297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>642</v>
       </c>
@@ -6361,7 +6350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>644</v>
       </c>
@@ -6414,7 +6403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>646</v>
       </c>
@@ -6467,7 +6456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>648</v>
       </c>
@@ -6520,7 +6509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>650</v>
       </c>
@@ -6573,7 +6562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>652</v>
       </c>
@@ -6626,7 +6615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>654</v>
       </c>
@@ -6679,7 +6668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>656</v>
       </c>
@@ -6732,7 +6721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>658</v>
       </c>
@@ -6785,7 +6774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>660</v>
       </c>
@@ -6838,7 +6827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>698</v>
       </c>
@@ -6891,7 +6880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>700</v>
       </c>
@@ -6944,7 +6933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>702</v>
       </c>
@@ -6997,7 +6986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>704</v>
       </c>
@@ -7050,7 +7039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>706</v>
       </c>
@@ -7103,7 +7092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>708</v>
       </c>
@@ -7156,7 +7145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>710</v>
       </c>
@@ -7209,7 +7198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>712</v>
       </c>
@@ -7262,7 +7251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>714</v>
       </c>
@@ -7315,7 +7304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>716</v>
       </c>
@@ -7368,7 +7357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>749</v>
       </c>
@@ -7421,7 +7410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>751</v>
       </c>
@@ -7474,7 +7463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>753</v>
       </c>
@@ -7527,7 +7516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>755</v>
       </c>
@@ -7580,7 +7569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>757</v>
       </c>
@@ -7633,7 +7622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>759</v>
       </c>
@@ -7686,7 +7675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>761</v>
       </c>
@@ -7739,7 +7728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>763</v>
       </c>
@@ -7792,7 +7781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>765</v>
       </c>
@@ -7845,7 +7834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>767</v>
       </c>
@@ -7898,7 +7887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>796</v>
       </c>
@@ -7951,7 +7940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>798</v>
       </c>
@@ -8004,7 +7993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>800</v>
       </c>
@@ -8057,7 +8046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>802</v>
       </c>
@@ -8110,7 +8099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>803</v>
       </c>
@@ -8163,7 +8152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>805</v>
       </c>
@@ -8216,7 +8205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>806</v>
       </c>
@@ -8269,7 +8258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>808</v>
       </c>
@@ -8322,7 +8311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>810</v>
       </c>
@@ -8375,7 +8364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>811</v>
       </c>
@@ -8428,7 +8417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>838</v>
       </c>
@@ -8481,7 +8470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>840</v>
       </c>
@@ -8534,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>842</v>
       </c>
@@ -8587,7 +8576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>844</v>
       </c>
@@ -8640,7 +8629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>846</v>
       </c>
@@ -8693,7 +8682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>863</v>
       </c>
@@ -8746,7 +8735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>865</v>
       </c>
@@ -8799,7 +8788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>867</v>
       </c>
@@ -8852,7 +8841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>869</v>
       </c>
@@ -8905,7 +8894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>871</v>
       </c>
@@ -8958,7 +8947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>148</v>
       </c>
@@ -9011,7 +9000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>149</v>
       </c>
@@ -9064,7 +9053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>151</v>
       </c>
@@ -9117,7 +9106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>153</v>
       </c>
@@ -9170,7 +9159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>155</v>
       </c>
@@ -9223,7 +9212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>156</v>
       </c>
@@ -9276,7 +9265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>157</v>
       </c>
@@ -9329,7 +9318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>159</v>
       </c>
@@ -9382,7 +9371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>160</v>
       </c>
@@ -9435,7 +9424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>161</v>
       </c>
@@ -9488,7 +9477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>163</v>
       </c>
@@ -9541,7 +9530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>164</v>
       </c>
@@ -9594,7 +9583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>165</v>
       </c>
@@ -9647,7 +9636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>166</v>
       </c>
@@ -9700,7 +9689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>167</v>
       </c>
@@ -9753,7 +9742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>168</v>
       </c>
@@ -9806,7 +9795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>169</v>
       </c>
@@ -9859,7 +9848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>170</v>
       </c>
@@ -9912,7 +9901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>171</v>
       </c>
@@ -9965,7 +9954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>172</v>
       </c>
@@ -10018,7 +10007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>173</v>
       </c>
@@ -10071,7 +10060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>174</v>
       </c>
@@ -10124,7 +10113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>175</v>
       </c>
@@ -10177,7 +10166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>176</v>
       </c>
@@ -10230,7 +10219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>177</v>
       </c>
@@ -10283,7 +10272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>178</v>
       </c>
@@ -10336,7 +10325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>179</v>
       </c>
@@ -10389,7 +10378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>180</v>
       </c>
@@ -10442,7 +10431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>181</v>
       </c>
@@ -10495,7 +10484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>182</v>
       </c>
@@ -10548,7 +10537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>183</v>
       </c>
@@ -10601,7 +10590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>184</v>
       </c>
@@ -10654,7 +10643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>185</v>
       </c>
@@ -10707,7 +10696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>186</v>
       </c>
@@ -10760,7 +10749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>187</v>
       </c>
@@ -10813,7 +10802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>188</v>
       </c>
@@ -10866,7 +10855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>189</v>
       </c>
@@ -10919,7 +10908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>190</v>
       </c>
@@ -10972,7 +10961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>191</v>
       </c>
@@ -11025,7 +11014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>192</v>
       </c>
@@ -11078,7 +11067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>193</v>
       </c>
@@ -11131,7 +11120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>194</v>
       </c>
@@ -11184,7 +11173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>195</v>
       </c>
@@ -11237,7 +11226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>196</v>
       </c>
@@ -11290,7 +11279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>197</v>
       </c>
@@ -11343,7 +11332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>198</v>
       </c>
@@ -11396,7 +11385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>199</v>
       </c>
@@ -11449,7 +11438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>200</v>
       </c>
@@ -11502,7 +11491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>201</v>
       </c>
@@ -11555,7 +11544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>202</v>
       </c>
@@ -11608,7 +11597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>203</v>
       </c>
@@ -11661,7 +11650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>204</v>
       </c>
@@ -11714,7 +11703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>205</v>
       </c>
@@ -11767,7 +11756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>206</v>
       </c>
@@ -11820,7 +11809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>207</v>
       </c>
@@ -11873,7 +11862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>208</v>
       </c>
@@ -11926,7 +11915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>209</v>
       </c>
@@ -11979,7 +11968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>210</v>
       </c>
@@ -12032,7 +12021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>212</v>
       </c>
@@ -12085,7 +12074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>213</v>
       </c>
@@ -12138,7 +12127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>214</v>
       </c>
@@ -12191,7 +12180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>215</v>
       </c>
@@ -12244,7 +12233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>216</v>
       </c>
@@ -12297,7 +12286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>217</v>
       </c>
@@ -12350,7 +12339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>219</v>
       </c>
@@ -12403,7 +12392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>220</v>
       </c>
@@ -12456,7 +12445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="100" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>221</v>
       </c>
@@ -12509,7 +12498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>222</v>
       </c>
@@ -12562,7 +12551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>223</v>
       </c>
@@ -12615,7 +12604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>224</v>
       </c>
@@ -12668,7 +12657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>225</v>
       </c>
@@ -12721,7 +12710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>226</v>
       </c>
@@ -12774,7 +12763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>228</v>
       </c>
@@ -12827,7 +12816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>229</v>
       </c>
@@ -12880,7 +12869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>230</v>
       </c>
@@ -12933,7 +12922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>232</v>
       </c>
@@ -12986,7 +12975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>233</v>
       </c>
@@ -13039,7 +13028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>234</v>
       </c>
@@ -13092,7 +13081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>235</v>
       </c>
@@ -13145,7 +13134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>236</v>
       </c>
@@ -13198,7 +13187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>237</v>
       </c>
@@ -13251,7 +13240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>238</v>
       </c>
@@ -13304,7 +13293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>239</v>
       </c>
@@ -13357,7 +13346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>240</v>
       </c>
@@ -13410,7 +13399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>241</v>
       </c>
@@ -13463,7 +13452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>242</v>
       </c>
@@ -13516,7 +13505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>243</v>
       </c>
@@ -13569,7 +13558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>245</v>
       </c>
@@ -13622,7 +13611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>246</v>
       </c>
@@ -13675,7 +13664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>247</v>
       </c>
@@ -13728,7 +13717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>248</v>
       </c>
@@ -13781,7 +13770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>249</v>
       </c>
@@ -13834,7 +13823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>250</v>
       </c>
@@ -13887,7 +13876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>251</v>
       </c>
@@ -13940,7 +13929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>252</v>
       </c>
@@ -13993,7 +13982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>253</v>
       </c>
@@ -14046,7 +14035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>254</v>
       </c>
@@ -14099,7 +14088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>255</v>
       </c>
@@ -14152,7 +14141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>257</v>
       </c>
@@ -14205,7 +14194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>258</v>
       </c>
@@ -14258,7 +14247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>260</v>
       </c>
@@ -14311,7 +14300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>261</v>
       </c>
@@ -14364,7 +14353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>262</v>
       </c>
@@ -14417,7 +14406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>263</v>
       </c>
@@ -14470,7 +14459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>264</v>
       </c>
@@ -14523,7 +14512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>265</v>
       </c>
@@ -14576,7 +14565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>266</v>
       </c>
@@ -14629,7 +14618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>267</v>
       </c>
@@ -14682,7 +14671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>268</v>
       </c>
@@ -14735,7 +14724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>269</v>
       </c>
@@ -14788,7 +14777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>270</v>
       </c>
@@ -14841,7 +14830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>271</v>
       </c>
@@ -14894,7 +14883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>398</v>
       </c>
@@ -14947,7 +14936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>399</v>
       </c>
@@ -15000,7 +14989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>400</v>
       </c>
@@ -15053,7 +15042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>401</v>
       </c>
@@ -15106,7 +15095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>402</v>
       </c>
@@ -15159,7 +15148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>403</v>
       </c>
@@ -15212,7 +15201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>404</v>
       </c>
@@ -15265,7 +15254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>405</v>
       </c>
@@ -15318,7 +15307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>406</v>
       </c>
@@ -15371,7 +15360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>407</v>
       </c>
@@ -15424,7 +15413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>408</v>
       </c>
@@ -15477,7 +15466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>409</v>
       </c>
@@ -15530,7 +15519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>410</v>
       </c>
@@ -15583,7 +15572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>411</v>
       </c>
@@ -15636,7 +15625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>412</v>
       </c>
@@ -15689,7 +15678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>413</v>
       </c>
@@ -15742,7 +15731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>414</v>
       </c>
@@ -15795,7 +15784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>415</v>
       </c>
@@ -15848,7 +15837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>416</v>
       </c>
@@ -15901,7 +15890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>417</v>
       </c>
@@ -15954,7 +15943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>419</v>
       </c>
@@ -16007,7 +15996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>420</v>
       </c>
@@ -16060,7 +16049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>421</v>
       </c>
@@ -16113,7 +16102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>423</v>
       </c>
@@ -16166,7 +16155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>424</v>
       </c>
@@ -16219,7 +16208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>425</v>
       </c>
@@ -16272,7 +16261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>426</v>
       </c>
@@ -16325,7 +16314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>427</v>
       </c>
@@ -16378,7 +16367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>428</v>
       </c>
@@ -16431,7 +16420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>429</v>
       </c>
@@ -16484,7 +16473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>430</v>
       </c>
@@ -16537,7 +16526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>431</v>
       </c>
@@ -16590,7 +16579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>432</v>
       </c>
@@ -16643,7 +16632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>433</v>
       </c>
@@ -16696,7 +16685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>434</v>
       </c>
@@ -16749,7 +16738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>435</v>
       </c>
@@ -16802,7 +16791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>437</v>
       </c>
@@ -16855,7 +16844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>439</v>
       </c>
@@ -16908,7 +16897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>440</v>
       </c>
@@ -16961,7 +16950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>441</v>
       </c>
@@ -17014,7 +17003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>442</v>
       </c>
@@ -17067,7 +17056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>443</v>
       </c>
@@ -17120,7 +17109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>444</v>
       </c>
@@ -17173,7 +17162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>445</v>
       </c>
@@ -17226,7 +17215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>446</v>
       </c>
@@ -17279,7 +17268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>447</v>
       </c>
@@ -17332,7 +17321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>449</v>
       </c>
@@ -17385,7 +17374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>450</v>
       </c>
@@ -17438,7 +17427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>451</v>
       </c>
@@ -17491,7 +17480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>452</v>
       </c>
@@ -17544,7 +17533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>454</v>
       </c>
@@ -17597,7 +17586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>455</v>
       </c>
@@ -17650,7 +17639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>456</v>
       </c>
@@ -17703,7 +17692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>457</v>
       </c>
@@ -17756,7 +17745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>458</v>
       </c>
@@ -17809,7 +17798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>459</v>
       </c>
@@ -17862,7 +17851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>461</v>
       </c>
@@ -17915,7 +17904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>462</v>
       </c>
@@ -17968,7 +17957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>463</v>
       </c>
@@ -18021,7 +18010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>465</v>
       </c>
@@ -18074,7 +18063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>466</v>
       </c>
@@ -18127,7 +18116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>468</v>
       </c>
@@ -18180,7 +18169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>469</v>
       </c>
@@ -18233,7 +18222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>470</v>
       </c>
@@ -18286,7 +18275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>471</v>
       </c>
@@ -18339,7 +18328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>472</v>
       </c>
@@ -18392,7 +18381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>473</v>
       </c>
@@ -18445,7 +18434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>474</v>
       </c>
@@ -18498,7 +18487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>475</v>
       </c>
@@ -18551,7 +18540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>476</v>
       </c>
@@ -18604,7 +18593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>477</v>
       </c>
@@ -18657,7 +18646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>478</v>
       </c>
@@ -18710,7 +18699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>479</v>
       </c>
@@ -18763,7 +18752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>480</v>
       </c>
@@ -18816,7 +18805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>481</v>
       </c>
@@ -18869,7 +18858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>482</v>
       </c>
@@ -18922,7 +18911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>483</v>
       </c>
@@ -18975,7 +18964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>484</v>
       </c>
@@ -19028,7 +19017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>485</v>
       </c>
@@ -19081,7 +19070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>486</v>
       </c>
@@ -19134,7 +19123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>487</v>
       </c>
@@ -19187,7 +19176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>488</v>
       </c>
@@ -19240,7 +19229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>489</v>
       </c>
@@ -19293,7 +19282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>490</v>
       </c>
@@ -19346,7 +19335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>492</v>
       </c>
@@ -19399,7 +19388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>493</v>
       </c>
@@ -19452,7 +19441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>494</v>
       </c>
@@ -19505,7 +19494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>495</v>
       </c>
@@ -19558,7 +19547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>496</v>
       </c>
@@ -19611,7 +19600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>497</v>
       </c>
@@ -19664,7 +19653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>498</v>
       </c>
@@ -19717,7 +19706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>499</v>
       </c>
@@ -19770,7 +19759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>501</v>
       </c>
@@ -19823,7 +19812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>502</v>
       </c>
@@ -19876,7 +19865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>503</v>
       </c>
@@ -19929,7 +19918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>504</v>
       </c>
@@ -19982,7 +19971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>505</v>
       </c>
@@ -20035,7 +20024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>506</v>
       </c>
@@ -20088,7 +20077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>507</v>
       </c>
@@ -20141,7 +20130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>508</v>
       </c>
@@ -20194,7 +20183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>509</v>
       </c>
@@ -20247,7 +20236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>510</v>
       </c>
@@ -20300,7 +20289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>511</v>
       </c>
@@ -20353,7 +20342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>512</v>
       </c>
@@ -20406,7 +20395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>513</v>
       </c>
@@ -20459,7 +20448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>514</v>
       </c>
@@ -20512,7 +20501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>515</v>
       </c>
@@ -20565,7 +20554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>516</v>
       </c>
@@ -20618,7 +20607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>517</v>
       </c>
@@ -20671,7 +20660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>518</v>
       </c>
@@ -20724,7 +20713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:17" ht="160" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" ht="150" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>519</v>
       </c>
@@ -20777,7 +20766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:17" ht="140" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>520</v>
       </c>
@@ -20830,7 +20819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>521</v>
       </c>
@@ -20882,18 +20871,6 @@
       <c r="Q301" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J302" s="5"/>
-      <c r="K302" s="5"/>
-    </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J303" s="5"/>
-      <c r="K303" s="5"/>
-    </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J304" s="5"/>
-      <c r="K304" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
